--- a/R/Spreadsheets & Templates/ExportedMobileMarineData.xlsx
+++ b/R/Spreadsheets & Templates/ExportedMobileMarineData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kourtney.burger\Documents\GitHub\NCEI-PACE-Data-Archive\R\Spreadsheets &amp; Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAFB686-C935-42BD-AA0D-E77CD24F5E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778B5EB-B129-469E-8A42-1C5F9C19C12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20265" yWindow="2205" windowWidth="17280" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportedMobileMarineData" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="334">
   <si>
     <t>Data Collection Name</t>
   </si>
@@ -1021,7 +1021,7 @@
     <t>2024-12-03T06:25:00</t>
   </si>
   <si>
-    <t>Z:/RECORDINGS/DRIFTERS/CalCurCEAS_2024/RAW/CalCurCEAS_021/WAV</t>
+    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_021</t>
   </si>
 </sst>
 </file>
@@ -1866,19 +1866,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN26"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="18.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="53.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="97.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="217.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="120" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="87.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1909,176 +1965,173 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+      <c r="K1" t="s">
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -2106,173 +2159,173 @@
       <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="1">
-        <v>46251</v>
+      <c r="J2" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>84</v>
+      </c>
+      <c r="V2" t="s">
+        <v>85</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y2" t="s">
         <v>80</v>
       </c>
-      <c r="S2" t="s">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" t="s">
-        <v>84</v>
-      </c>
-      <c r="W2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
-      </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" t="s">
         <v>89</v>
       </c>
+      <c r="AB2">
+        <v>50</v>
+      </c>
       <c r="AC2">
-        <v>50</v>
-      </c>
-      <c r="AD2">
         <v>192000</v>
       </c>
+      <c r="AD2" t="s">
+        <v>90</v>
+      </c>
       <c r="AE2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="s">
         <v>91</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AJ2" t="s">
         <v>92</v>
       </c>
-      <c r="AI2">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AK2">
+        <v>384000</v>
+      </c>
+      <c r="AL2">
+        <v>16</v>
+      </c>
+      <c r="AM2" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AN2" t="s">
         <v>92</v>
       </c>
-      <c r="AL2">
-        <v>384000</v>
-      </c>
-      <c r="AM2">
-        <v>16</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>92</v>
+      <c r="AO2">
+        <v>6</v>
       </c>
       <c r="AP2">
         <v>6</v>
       </c>
-      <c r="AQ2">
-        <v>6</v>
+      <c r="AQ2" t="s">
+        <v>91</v>
       </c>
       <c r="AR2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS2">
+        <v>7951</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AV2" t="s">
         <v>91</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>92</v>
       </c>
-      <c r="AT2">
-        <v>7951</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>92</v>
+      <c r="AX2">
+        <v>856135</v>
       </c>
       <c r="AY2">
-        <v>856135</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <v>0</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB2">
-        <v>-95</v>
+        <v>856147</v>
       </c>
       <c r="BC2">
-        <v>856147</v>
+        <v>0</v>
       </c>
       <c r="BD2">
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
         <v>-100</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BF2" t="s">
         <v>95</v>
       </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
       <c r="BH2">
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>1</v>
+        <v>16409</v>
       </c>
       <c r="BK2">
-        <v>16409</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
         <v>-90</v>
       </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -2300,173 +2353,173 @@
       <c r="I3" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="1">
-        <v>46254</v>
+      <c r="J3" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K3" t="s">
+        <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="M3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="s">
+        <v>84</v>
+      </c>
+      <c r="V3" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y3" t="s">
         <v>80</v>
       </c>
-      <c r="S3" t="s">
-        <v>81</v>
-      </c>
-      <c r="T3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>100</v>
-      </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB3" t="s">
         <v>89</v>
       </c>
+      <c r="AB3">
+        <v>500</v>
+      </c>
       <c r="AC3">
-        <v>500</v>
-      </c>
-      <c r="AD3">
         <v>192000</v>
       </c>
+      <c r="AD3" t="s">
+        <v>90</v>
+      </c>
       <c r="AE3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="AF3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="s">
         <v>101</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
         <v>102</v>
       </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3" t="s">
+      <c r="AK3">
+        <v>384000</v>
+      </c>
+      <c r="AL3">
+        <v>16</v>
+      </c>
+      <c r="AM3" t="s">
         <v>101</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AN3" t="s">
         <v>102</v>
       </c>
-      <c r="AL3">
-        <v>384000</v>
-      </c>
-      <c r="AM3">
-        <v>16</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>102</v>
+      <c r="AO3">
+        <v>6</v>
       </c>
       <c r="AP3">
         <v>6</v>
       </c>
-      <c r="AQ3">
-        <v>6</v>
+      <c r="AQ3" t="s">
+        <v>101</v>
       </c>
       <c r="AR3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS3">
+        <v>6663</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AV3" t="s">
         <v>101</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AW3" t="s">
         <v>102</v>
       </c>
-      <c r="AT3">
-        <v>6663</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>102</v>
+      <c r="AX3">
+        <v>856164</v>
       </c>
       <c r="AY3">
-        <v>856164</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB3">
-        <v>-95</v>
+        <v>856175</v>
       </c>
       <c r="BC3">
-        <v>856175</v>
+        <v>0</v>
       </c>
       <c r="BD3">
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
         <v>-100</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BF3" t="s">
         <v>105</v>
       </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
       <c r="BH3">
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>16636</v>
       </c>
       <c r="BK3">
-        <v>16636</v>
+        <v>0</v>
       </c>
       <c r="BL3">
         <v>0</v>
       </c>
       <c r="BM3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
         <v>-90</v>
       </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -2494,173 +2547,173 @@
       <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="1">
-        <v>46254</v>
+      <c r="J4" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K4" t="s">
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s">
+        <v>81</v>
+      </c>
+      <c r="S4" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W4" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" t="s">
         <v>80</v>
       </c>
-      <c r="S4" t="s">
-        <v>81</v>
-      </c>
-      <c r="T4" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" t="s">
-        <v>84</v>
-      </c>
-      <c r="W4" t="s">
-        <v>85</v>
-      </c>
-      <c r="X4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>110</v>
-      </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB4" t="s">
         <v>89</v>
       </c>
+      <c r="AB4">
+        <v>100</v>
+      </c>
       <c r="AC4">
-        <v>100</v>
-      </c>
-      <c r="AD4">
         <v>192000</v>
       </c>
+      <c r="AD4" t="s">
+        <v>90</v>
+      </c>
       <c r="AE4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="AF4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
         <v>111</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
         <v>112</v>
       </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="s">
+      <c r="AK4">
+        <v>384000</v>
+      </c>
+      <c r="AL4">
+        <v>16</v>
+      </c>
+      <c r="AM4" t="s">
         <v>111</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AN4" t="s">
         <v>112</v>
       </c>
-      <c r="AL4">
-        <v>384000</v>
-      </c>
-      <c r="AM4">
-        <v>16</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>112</v>
+      <c r="AO4">
+        <v>6</v>
       </c>
       <c r="AP4">
         <v>6</v>
       </c>
-      <c r="AQ4">
-        <v>6</v>
+      <c r="AQ4" t="s">
+        <v>111</v>
       </c>
       <c r="AR4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS4">
+        <v>7517</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AV4" t="s">
         <v>111</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AW4" t="s">
         <v>112</v>
       </c>
-      <c r="AT4">
-        <v>7517</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>112</v>
+      <c r="AX4">
+        <v>856154</v>
       </c>
       <c r="AY4">
-        <v>856154</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB4">
-        <v>-95</v>
+        <v>856170</v>
       </c>
       <c r="BC4">
-        <v>856170</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
         <v>-100</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BF4" t="s">
         <v>115</v>
       </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
       <c r="BH4">
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ4">
-        <v>1</v>
+        <v>15865</v>
       </c>
       <c r="BK4">
-        <v>15865</v>
+        <v>0</v>
       </c>
       <c r="BL4">
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
         <v>-90</v>
       </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -2688,173 +2741,173 @@
       <c r="I5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="1">
-        <v>46255</v>
+      <c r="J5" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N5" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s">
+        <v>81</v>
+      </c>
+      <c r="S5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" t="s">
+        <v>84</v>
+      </c>
+      <c r="V5" t="s">
+        <v>85</v>
+      </c>
+      <c r="W5" t="s">
+        <v>86</v>
+      </c>
+      <c r="X5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" t="s">
         <v>80</v>
       </c>
-      <c r="S5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U5" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W5" t="s">
-        <v>85</v>
-      </c>
-      <c r="X5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>120</v>
-      </c>
       <c r="Z5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB5" t="s">
         <v>89</v>
       </c>
+      <c r="AB5">
+        <v>50</v>
+      </c>
       <c r="AC5">
-        <v>50</v>
-      </c>
-      <c r="AD5">
         <v>192000</v>
       </c>
+      <c r="AD5" t="s">
+        <v>90</v>
+      </c>
       <c r="AE5" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="AF5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="s">
         <v>121</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
         <v>122</v>
       </c>
-      <c r="AI5">
-        <v>1</v>
-      </c>
-      <c r="AJ5" t="s">
+      <c r="AK5">
+        <v>384000</v>
+      </c>
+      <c r="AL5">
+        <v>16</v>
+      </c>
+      <c r="AM5" t="s">
         <v>121</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AN5" t="s">
         <v>122</v>
       </c>
-      <c r="AL5">
-        <v>384000</v>
-      </c>
-      <c r="AM5">
-        <v>16</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>122</v>
+      <c r="AO5">
+        <v>6</v>
       </c>
       <c r="AP5">
         <v>6</v>
       </c>
-      <c r="AQ5">
-        <v>6</v>
+      <c r="AQ5" t="s">
+        <v>121</v>
       </c>
       <c r="AR5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS5">
+        <v>7581</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV5" t="s">
         <v>121</v>
       </c>
-      <c r="AS5" t="s">
+      <c r="AW5" t="s">
         <v>122</v>
       </c>
-      <c r="AT5">
-        <v>7581</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>122</v>
+      <c r="AX5">
+        <v>856141</v>
       </c>
       <c r="AY5">
-        <v>856141</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB5">
-        <v>-95</v>
+        <v>856144</v>
       </c>
       <c r="BC5">
-        <v>856144</v>
+        <v>0</v>
       </c>
       <c r="BD5">
         <v>0</v>
       </c>
       <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
         <v>-100</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BF5" t="s">
         <v>125</v>
       </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
       <c r="BH5">
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ5">
-        <v>1</v>
+        <v>16396</v>
       </c>
       <c r="BK5">
-        <v>16396</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
       </c>
       <c r="BM5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
         <v>-90</v>
       </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -2882,173 +2935,173 @@
       <c r="I6" t="s">
         <v>128</v>
       </c>
-      <c r="K6" s="1">
-        <v>46257</v>
+      <c r="J6" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N6" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+      <c r="U6" t="s">
+        <v>84</v>
+      </c>
+      <c r="V6" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y6" t="s">
         <v>80</v>
       </c>
-      <c r="S6" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" t="s">
-        <v>84</v>
-      </c>
-      <c r="W6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>131</v>
-      </c>
       <c r="Z6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB6" t="s">
         <v>89</v>
       </c>
+      <c r="AB6">
+        <v>50</v>
+      </c>
       <c r="AC6">
-        <v>50</v>
-      </c>
-      <c r="AD6">
         <v>192000</v>
       </c>
+      <c r="AD6" t="s">
+        <v>90</v>
+      </c>
       <c r="AE6" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="AF6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="s">
         <v>132</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
         <v>133</v>
       </c>
-      <c r="AI6">
-        <v>1</v>
-      </c>
-      <c r="AJ6" t="s">
+      <c r="AK6">
+        <v>384000</v>
+      </c>
+      <c r="AL6">
+        <v>16</v>
+      </c>
+      <c r="AM6" t="s">
         <v>132</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AN6" t="s">
         <v>133</v>
       </c>
-      <c r="AL6">
-        <v>384000</v>
-      </c>
-      <c r="AM6">
-        <v>16</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>133</v>
+      <c r="AO6">
+        <v>6</v>
       </c>
       <c r="AP6">
         <v>6</v>
       </c>
-      <c r="AQ6">
-        <v>6</v>
+      <c r="AQ6" t="s">
+        <v>132</v>
       </c>
       <c r="AR6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS6">
+        <v>7936</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV6" t="s">
         <v>132</v>
       </c>
-      <c r="AS6" t="s">
+      <c r="AW6" t="s">
         <v>133</v>
       </c>
-      <c r="AT6">
-        <v>7936</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>133</v>
+      <c r="AX6">
+        <v>856139</v>
       </c>
       <c r="AY6">
-        <v>856139</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB6">
-        <v>-95</v>
+        <v>856148</v>
       </c>
       <c r="BC6">
-        <v>856148</v>
+        <v>0</v>
       </c>
       <c r="BD6">
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
         <v>-100</v>
       </c>
-      <c r="BG6" t="s">
+      <c r="BF6" t="s">
         <v>136</v>
       </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
       <c r="BH6">
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>17438</v>
       </c>
       <c r="BK6">
-        <v>17438</v>
+        <v>0</v>
       </c>
       <c r="BL6">
         <v>0</v>
       </c>
       <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
         <v>-90</v>
       </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -3076,173 +3129,173 @@
       <c r="I7" t="s">
         <v>128</v>
       </c>
-      <c r="K7" s="1">
-        <v>46278</v>
+      <c r="J7" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O7" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="P7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s">
+        <v>81</v>
+      </c>
+      <c r="S7" t="s">
+        <v>82</v>
+      </c>
+      <c r="T7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U7" t="s">
+        <v>84</v>
+      </c>
+      <c r="V7" t="s">
+        <v>85</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y7" t="s">
         <v>80</v>
       </c>
-      <c r="S7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" t="s">
-        <v>82</v>
-      </c>
-      <c r="U7" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" t="s">
-        <v>84</v>
-      </c>
-      <c r="W7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>142</v>
-      </c>
       <c r="Z7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB7" t="s">
         <v>89</v>
       </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
       <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
         <v>192000</v>
       </c>
+      <c r="AD7" t="s">
+        <v>90</v>
+      </c>
       <c r="AE7" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="AF7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="s">
         <v>143</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
         <v>144</v>
       </c>
-      <c r="AI7">
-        <v>1</v>
-      </c>
-      <c r="AJ7" t="s">
+      <c r="AK7">
+        <v>384000</v>
+      </c>
+      <c r="AL7">
+        <v>16</v>
+      </c>
+      <c r="AM7" t="s">
         <v>143</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AN7" t="s">
         <v>144</v>
       </c>
-      <c r="AL7">
-        <v>384000</v>
-      </c>
-      <c r="AM7">
-        <v>16</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>144</v>
+      <c r="AO7">
+        <v>6</v>
       </c>
       <c r="AP7">
         <v>6</v>
       </c>
-      <c r="AQ7">
-        <v>6</v>
+      <c r="AQ7" t="s">
+        <v>143</v>
       </c>
       <c r="AR7" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS7">
+        <v>7936</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV7" t="s">
         <v>143</v>
       </c>
-      <c r="AS7" t="s">
+      <c r="AW7" t="s">
         <v>144</v>
       </c>
-      <c r="AT7">
-        <v>7936</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>145</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>144</v>
+      <c r="AX7">
+        <v>856136</v>
       </c>
       <c r="AY7">
-        <v>856136</v>
+        <v>0</v>
       </c>
       <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB7">
-        <v>-95</v>
+        <v>856145</v>
       </c>
       <c r="BC7">
-        <v>856145</v>
+        <v>0</v>
       </c>
       <c r="BD7">
         <v>0</v>
       </c>
       <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
         <v>-100</v>
       </c>
-      <c r="BG7" t="s">
+      <c r="BF7" t="s">
         <v>147</v>
       </c>
+      <c r="BG7">
+        <v>0</v>
+      </c>
       <c r="BH7">
         <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ7">
-        <v>1</v>
+        <v>15766</v>
       </c>
       <c r="BK7">
-        <v>15766</v>
+        <v>0</v>
       </c>
       <c r="BL7">
         <v>0</v>
       </c>
       <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
         <v>-90</v>
       </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>148</v>
       </c>
@@ -3270,173 +3323,173 @@
       <c r="I8" t="s">
         <v>128</v>
       </c>
-      <c r="K8" s="1">
-        <v>46279</v>
+      <c r="J8" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N8" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O8" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" t="s">
+        <v>84</v>
+      </c>
+      <c r="V8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" t="s">
+        <v>86</v>
+      </c>
+      <c r="X8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y8" t="s">
         <v>80</v>
       </c>
-      <c r="S8" t="s">
-        <v>81</v>
-      </c>
-      <c r="T8" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="W8" t="s">
-        <v>85</v>
-      </c>
-      <c r="X8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>152</v>
-      </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB8" t="s">
         <v>89</v>
       </c>
+      <c r="AB8">
+        <v>115</v>
+      </c>
       <c r="AC8">
-        <v>115</v>
-      </c>
-      <c r="AD8">
         <v>192000</v>
       </c>
+      <c r="AD8" t="s">
+        <v>90</v>
+      </c>
       <c r="AE8" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
       <c r="AF8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="s">
         <v>153</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
         <v>154</v>
       </c>
-      <c r="AI8">
-        <v>1</v>
-      </c>
-      <c r="AJ8" t="s">
+      <c r="AK8">
+        <v>384000</v>
+      </c>
+      <c r="AL8">
+        <v>16</v>
+      </c>
+      <c r="AM8" t="s">
         <v>153</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AN8" t="s">
         <v>154</v>
       </c>
-      <c r="AL8">
-        <v>384000</v>
-      </c>
-      <c r="AM8">
-        <v>16</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>154</v>
+      <c r="AO8">
+        <v>6</v>
       </c>
       <c r="AP8">
         <v>6</v>
       </c>
-      <c r="AQ8">
-        <v>6</v>
+      <c r="AQ8" t="s">
+        <v>153</v>
       </c>
       <c r="AR8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS8">
+        <v>7517</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AV8" t="s">
         <v>153</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AW8" t="s">
         <v>154</v>
       </c>
-      <c r="AT8">
-        <v>7517</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>154</v>
+      <c r="AX8">
+        <v>856138</v>
       </c>
       <c r="AY8">
-        <v>856138</v>
+        <v>0</v>
       </c>
       <c r="AZ8">
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB8">
-        <v>-95</v>
+        <v>856151</v>
       </c>
       <c r="BC8">
-        <v>856151</v>
+        <v>0</v>
       </c>
       <c r="BD8">
         <v>0</v>
       </c>
       <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
         <v>-100</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BF8" t="s">
         <v>157</v>
       </c>
+      <c r="BG8">
+        <v>0</v>
+      </c>
       <c r="BH8">
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ8">
-        <v>1</v>
+        <v>17439</v>
       </c>
       <c r="BK8">
-        <v>17439</v>
+        <v>0</v>
       </c>
       <c r="BL8">
         <v>0</v>
       </c>
       <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
         <v>-90</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>158</v>
       </c>
@@ -3464,173 +3517,173 @@
       <c r="I9" t="s">
         <v>128</v>
       </c>
-      <c r="K9" s="1">
-        <v>46279</v>
+      <c r="J9" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="M9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N9" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O9" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" t="s">
+        <v>84</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+      <c r="X9" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y9" t="s">
         <v>80</v>
       </c>
-      <c r="S9" t="s">
-        <v>81</v>
-      </c>
-      <c r="T9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" t="s">
-        <v>84</v>
-      </c>
-      <c r="W9" t="s">
-        <v>85</v>
-      </c>
-      <c r="X9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>162</v>
-      </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB9" t="s">
         <v>89</v>
       </c>
+      <c r="AB9">
+        <v>350</v>
+      </c>
       <c r="AC9">
-        <v>350</v>
-      </c>
-      <c r="AD9">
         <v>192000</v>
       </c>
+      <c r="AD9" t="s">
+        <v>90</v>
+      </c>
       <c r="AE9" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="AF9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="s">
         <v>163</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AJ9" t="s">
         <v>164</v>
       </c>
-      <c r="AI9">
-        <v>1</v>
-      </c>
-      <c r="AJ9" t="s">
+      <c r="AK9">
+        <v>384000</v>
+      </c>
+      <c r="AL9">
+        <v>16</v>
+      </c>
+      <c r="AM9" t="s">
         <v>163</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AN9" t="s">
         <v>164</v>
       </c>
-      <c r="AL9">
-        <v>384000</v>
-      </c>
-      <c r="AM9">
-        <v>16</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>164</v>
+      <c r="AO9">
+        <v>6</v>
       </c>
       <c r="AP9">
         <v>6</v>
       </c>
-      <c r="AQ9">
-        <v>6</v>
+      <c r="AQ9" t="s">
+        <v>163</v>
       </c>
       <c r="AR9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS9">
+        <v>6663</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV9" t="s">
         <v>163</v>
       </c>
-      <c r="AS9" t="s">
+      <c r="AW9" t="s">
         <v>164</v>
       </c>
-      <c r="AT9">
-        <v>6663</v>
-      </c>
-      <c r="AU9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>164</v>
+      <c r="AX9">
+        <v>856159</v>
       </c>
       <c r="AY9">
-        <v>856159</v>
+        <v>0</v>
       </c>
       <c r="AZ9">
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB9">
-        <v>-95</v>
+        <v>856177</v>
       </c>
       <c r="BC9">
-        <v>856177</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <v>0</v>
       </c>
       <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
         <v>-100</v>
       </c>
-      <c r="BG9" t="s">
+      <c r="BF9" t="s">
         <v>167</v>
       </c>
+      <c r="BG9">
+        <v>0</v>
+      </c>
       <c r="BH9">
         <v>0</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ9">
-        <v>1</v>
+        <v>16396</v>
       </c>
       <c r="BK9">
-        <v>16396</v>
+        <v>0</v>
       </c>
       <c r="BL9">
         <v>0</v>
       </c>
       <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
         <v>-90</v>
       </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>168</v>
       </c>
@@ -3658,173 +3711,173 @@
       <c r="I10" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="1">
-        <v>46280</v>
+      <c r="J10" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="M10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s">
+        <v>81</v>
+      </c>
+      <c r="S10" t="s">
+        <v>82</v>
+      </c>
+      <c r="T10" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" t="s">
+        <v>84</v>
+      </c>
+      <c r="V10" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" t="s">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y10" t="s">
         <v>80</v>
       </c>
-      <c r="S10" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" t="s">
-        <v>85</v>
-      </c>
-      <c r="X10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>172</v>
-      </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" t="s">
         <v>89</v>
       </c>
+      <c r="AB10">
+        <v>60</v>
+      </c>
       <c r="AC10">
-        <v>60</v>
-      </c>
-      <c r="AD10">
         <v>192000</v>
       </c>
+      <c r="AD10" t="s">
+        <v>90</v>
+      </c>
       <c r="AE10" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="AF10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="s">
         <v>173</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AJ10" t="s">
         <v>174</v>
       </c>
-      <c r="AI10">
-        <v>1</v>
-      </c>
-      <c r="AJ10" t="s">
+      <c r="AK10">
+        <v>384000</v>
+      </c>
+      <c r="AL10">
+        <v>16</v>
+      </c>
+      <c r="AM10" t="s">
         <v>173</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AN10" t="s">
         <v>174</v>
       </c>
-      <c r="AL10">
-        <v>384000</v>
-      </c>
-      <c r="AM10">
-        <v>16</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>174</v>
+      <c r="AO10">
+        <v>6</v>
       </c>
       <c r="AP10">
         <v>6</v>
       </c>
-      <c r="AQ10">
-        <v>6</v>
+      <c r="AQ10" t="s">
+        <v>173</v>
       </c>
       <c r="AR10" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS10">
+        <v>7518</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>176</v>
+      </c>
+      <c r="AV10" t="s">
         <v>173</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AW10" t="s">
         <v>174</v>
       </c>
-      <c r="AT10">
-        <v>7518</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>175</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>173</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>174</v>
+      <c r="AX10">
+        <v>856156</v>
       </c>
       <c r="AY10">
-        <v>856156</v>
+        <v>0</v>
       </c>
       <c r="AZ10">
         <v>0</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB10">
-        <v>-95</v>
+        <v>856167</v>
       </c>
       <c r="BC10">
-        <v>856167</v>
+        <v>0</v>
       </c>
       <c r="BD10">
         <v>0</v>
       </c>
       <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
         <v>-100</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BF10" t="s">
         <v>177</v>
       </c>
+      <c r="BG10">
+        <v>0</v>
+      </c>
       <c r="BH10">
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ10">
-        <v>1</v>
+        <v>16636</v>
       </c>
       <c r="BK10">
-        <v>16636</v>
+        <v>0</v>
       </c>
       <c r="BL10">
         <v>0</v>
       </c>
       <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
         <v>-90</v>
       </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -3852,173 +3905,173 @@
       <c r="I11" t="s">
         <v>180</v>
       </c>
-      <c r="K11" s="1">
-        <v>46296</v>
+      <c r="J11" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N11" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" t="s">
+        <v>82</v>
+      </c>
+      <c r="T11" t="s">
+        <v>83</v>
+      </c>
+      <c r="U11" t="s">
+        <v>84</v>
+      </c>
+      <c r="V11" t="s">
+        <v>85</v>
+      </c>
+      <c r="W11" t="s">
+        <v>86</v>
+      </c>
+      <c r="X11" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y11" t="s">
         <v>80</v>
       </c>
-      <c r="S11" t="s">
-        <v>81</v>
-      </c>
-      <c r="T11" t="s">
-        <v>82</v>
-      </c>
-      <c r="U11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" t="s">
-        <v>84</v>
-      </c>
-      <c r="W11" t="s">
-        <v>85</v>
-      </c>
-      <c r="X11" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>183</v>
-      </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB11" t="s">
         <v>89</v>
       </c>
+      <c r="AB11">
+        <v>300</v>
+      </c>
       <c r="AC11">
-        <v>300</v>
-      </c>
-      <c r="AD11">
         <v>192000</v>
       </c>
+      <c r="AD11" t="s">
+        <v>90</v>
+      </c>
       <c r="AE11" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="AF11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="s">
         <v>184</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AJ11" t="s">
         <v>185</v>
       </c>
-      <c r="AI11">
-        <v>1</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AK11">
+        <v>384000</v>
+      </c>
+      <c r="AL11">
+        <v>16</v>
+      </c>
+      <c r="AM11" t="s">
         <v>184</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AN11" t="s">
         <v>185</v>
       </c>
-      <c r="AL11">
-        <v>384000</v>
-      </c>
-      <c r="AM11">
-        <v>16</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>185</v>
+      <c r="AO11">
+        <v>6</v>
       </c>
       <c r="AP11">
         <v>6</v>
       </c>
-      <c r="AQ11">
-        <v>6</v>
+      <c r="AQ11" t="s">
+        <v>184</v>
       </c>
       <c r="AR11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS11">
+        <v>7930</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV11" t="s">
         <v>184</v>
       </c>
-      <c r="AS11" t="s">
+      <c r="AW11" t="s">
         <v>185</v>
       </c>
-      <c r="AT11">
-        <v>7930</v>
-      </c>
-      <c r="AU11" t="s">
-        <v>186</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>187</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>185</v>
+      <c r="AX11">
+        <v>856135</v>
       </c>
       <c r="AY11">
-        <v>856135</v>
+        <v>0</v>
       </c>
       <c r="AZ11">
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB11">
-        <v>-95</v>
+        <v>856147</v>
       </c>
       <c r="BC11">
-        <v>856147</v>
+        <v>0</v>
       </c>
       <c r="BD11">
         <v>0</v>
       </c>
       <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
         <v>-100</v>
       </c>
-      <c r="BG11" t="s">
+      <c r="BF11" t="s">
         <v>188</v>
       </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
       <c r="BH11">
         <v>0</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ11">
-        <v>1</v>
+        <v>16409</v>
       </c>
       <c r="BK11">
-        <v>16409</v>
+        <v>0</v>
       </c>
       <c r="BL11">
         <v>0</v>
       </c>
       <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
         <v>-90</v>
       </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>189</v>
       </c>
@@ -4046,173 +4099,173 @@
       <c r="I12" t="s">
         <v>180</v>
       </c>
-      <c r="K12" s="1">
-        <v>46296</v>
+      <c r="J12" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K12" t="s">
+        <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="M12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N12" t="s">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
+        <v>81</v>
+      </c>
+      <c r="S12" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" t="s">
+        <v>83</v>
+      </c>
+      <c r="U12" t="s">
+        <v>84</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y12" t="s">
         <v>80</v>
       </c>
-      <c r="S12" t="s">
-        <v>81</v>
-      </c>
-      <c r="T12" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" t="s">
-        <v>84</v>
-      </c>
-      <c r="W12" t="s">
-        <v>85</v>
-      </c>
-      <c r="X12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>193</v>
-      </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB12" t="s">
         <v>89</v>
       </c>
+      <c r="AB12">
+        <v>100</v>
+      </c>
       <c r="AC12">
-        <v>100</v>
-      </c>
-      <c r="AD12">
         <v>192000</v>
       </c>
+      <c r="AD12" t="s">
+        <v>90</v>
+      </c>
       <c r="AE12" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="AF12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="s">
         <v>194</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AJ12" t="s">
         <v>195</v>
       </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AK12">
+        <v>384000</v>
+      </c>
+      <c r="AL12">
+        <v>16</v>
+      </c>
+      <c r="AM12" t="s">
         <v>194</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AN12" t="s">
         <v>195</v>
       </c>
-      <c r="AL12">
-        <v>384000</v>
-      </c>
-      <c r="AM12">
-        <v>16</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>195</v>
+      <c r="AO12">
+        <v>6</v>
       </c>
       <c r="AP12">
         <v>6</v>
       </c>
-      <c r="AQ12">
-        <v>6</v>
+      <c r="AQ12" t="s">
+        <v>194</v>
       </c>
       <c r="AR12" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS12">
+        <v>7518</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV12" t="s">
         <v>194</v>
       </c>
-      <c r="AS12" t="s">
+      <c r="AW12" t="s">
         <v>195</v>
       </c>
-      <c r="AT12">
-        <v>7518</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>195</v>
+      <c r="AX12">
+        <v>856163</v>
       </c>
       <c r="AY12">
-        <v>856163</v>
+        <v>0</v>
       </c>
       <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB12">
-        <v>-95</v>
+        <v>856171</v>
       </c>
       <c r="BC12">
-        <v>856171</v>
+        <v>0</v>
       </c>
       <c r="BD12">
         <v>0</v>
       </c>
       <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
         <v>-100</v>
       </c>
-      <c r="BG12" t="s">
+      <c r="BF12" t="s">
         <v>198</v>
       </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
       <c r="BH12">
         <v>0</v>
       </c>
       <c r="BI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12">
-        <v>1</v>
+        <v>16636</v>
       </c>
       <c r="BK12">
-        <v>16636</v>
+        <v>0</v>
       </c>
       <c r="BL12">
         <v>0</v>
       </c>
       <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
         <v>-90</v>
       </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>199</v>
       </c>
@@ -4240,173 +4293,173 @@
       <c r="I13" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="1">
-        <v>46296</v>
+      <c r="J13" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="M13" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N13" t="s">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s">
+        <v>81</v>
+      </c>
+      <c r="S13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" t="s">
+        <v>83</v>
+      </c>
+      <c r="U13" t="s">
+        <v>84</v>
+      </c>
+      <c r="V13" t="s">
+        <v>85</v>
+      </c>
+      <c r="W13" t="s">
+        <v>86</v>
+      </c>
+      <c r="X13" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y13" t="s">
         <v>80</v>
       </c>
-      <c r="S13" t="s">
-        <v>81</v>
-      </c>
-      <c r="T13" t="s">
-        <v>82</v>
-      </c>
-      <c r="U13" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" t="s">
-        <v>84</v>
-      </c>
-      <c r="W13" t="s">
-        <v>85</v>
-      </c>
-      <c r="X13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>203</v>
-      </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB13" t="s">
         <v>89</v>
       </c>
+      <c r="AB13">
+        <v>20</v>
+      </c>
       <c r="AC13">
-        <v>20</v>
-      </c>
-      <c r="AD13">
         <v>192000</v>
       </c>
+      <c r="AD13" t="s">
+        <v>90</v>
+      </c>
       <c r="AE13" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="AF13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="s">
         <v>204</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AJ13" t="s">
         <v>205</v>
       </c>
-      <c r="AI13">
-        <v>1</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AK13">
+        <v>384000</v>
+      </c>
+      <c r="AL13">
+        <v>16</v>
+      </c>
+      <c r="AM13" t="s">
         <v>204</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AN13" t="s">
         <v>205</v>
       </c>
-      <c r="AL13">
-        <v>384000</v>
-      </c>
-      <c r="AM13">
-        <v>16</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>205</v>
+      <c r="AO13">
+        <v>6</v>
       </c>
       <c r="AP13">
         <v>6</v>
       </c>
-      <c r="AQ13">
-        <v>6</v>
+      <c r="AQ13" t="s">
+        <v>204</v>
       </c>
       <c r="AR13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS13">
+        <v>7519</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV13" t="s">
         <v>204</v>
       </c>
-      <c r="AS13" t="s">
+      <c r="AW13" t="s">
         <v>205</v>
       </c>
-      <c r="AT13">
-        <v>7519</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>204</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>205</v>
+      <c r="AX13">
+        <v>856161</v>
       </c>
       <c r="AY13">
-        <v>856161</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB13">
-        <v>-95</v>
+        <v>856176</v>
       </c>
       <c r="BC13">
-        <v>856176</v>
+        <v>0</v>
       </c>
       <c r="BD13">
         <v>0</v>
       </c>
       <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
         <v>-100</v>
       </c>
-      <c r="BG13" t="s">
+      <c r="BF13" t="s">
         <v>208</v>
       </c>
+      <c r="BG13">
+        <v>0</v>
+      </c>
       <c r="BH13">
         <v>0</v>
       </c>
       <c r="BI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13">
-        <v>1</v>
+        <v>15865</v>
       </c>
       <c r="BK13">
-        <v>15865</v>
+        <v>0</v>
       </c>
       <c r="BL13">
         <v>0</v>
       </c>
       <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
         <v>-90</v>
       </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -4434,173 +4487,173 @@
       <c r="I14" t="s">
         <v>180</v>
       </c>
-      <c r="K14" s="1">
-        <v>46300</v>
+      <c r="J14" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N14" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
+        <v>81</v>
+      </c>
+      <c r="S14" t="s">
+        <v>82</v>
+      </c>
+      <c r="T14" t="s">
+        <v>83</v>
+      </c>
+      <c r="U14" t="s">
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>85</v>
+      </c>
+      <c r="W14" t="s">
+        <v>86</v>
+      </c>
+      <c r="X14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y14" t="s">
         <v>80</v>
       </c>
-      <c r="S14" t="s">
-        <v>81</v>
-      </c>
-      <c r="T14" t="s">
-        <v>82</v>
-      </c>
-      <c r="U14" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W14" t="s">
-        <v>85</v>
-      </c>
-      <c r="X14" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>213</v>
-      </c>
       <c r="Z14" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB14" t="s">
         <v>89</v>
       </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
       <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
         <v>192000</v>
       </c>
+      <c r="AD14" t="s">
+        <v>90</v>
+      </c>
       <c r="AE14" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="AF14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="s">
         <v>214</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AJ14" t="s">
         <v>215</v>
       </c>
-      <c r="AI14">
-        <v>1</v>
-      </c>
-      <c r="AJ14" t="s">
+      <c r="AK14">
+        <v>384000</v>
+      </c>
+      <c r="AL14">
+        <v>16</v>
+      </c>
+      <c r="AM14" t="s">
         <v>214</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AN14" t="s">
         <v>215</v>
       </c>
-      <c r="AL14">
-        <v>384000</v>
-      </c>
-      <c r="AM14">
-        <v>16</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>215</v>
+      <c r="AO14">
+        <v>6</v>
       </c>
       <c r="AP14">
         <v>6</v>
       </c>
-      <c r="AQ14">
-        <v>6</v>
+      <c r="AQ14" t="s">
+        <v>214</v>
       </c>
       <c r="AR14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AS14">
+        <v>6663</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV14" t="s">
         <v>214</v>
       </c>
-      <c r="AS14" t="s">
+      <c r="AW14" t="s">
         <v>215</v>
       </c>
-      <c r="AT14">
-        <v>6663</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>216</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>214</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>215</v>
+      <c r="AX14">
+        <v>856136</v>
       </c>
       <c r="AY14">
-        <v>856136</v>
+        <v>0</v>
       </c>
       <c r="AZ14">
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB14">
-        <v>-95</v>
+        <v>856145</v>
       </c>
       <c r="BC14">
-        <v>856145</v>
+        <v>0</v>
       </c>
       <c r="BD14">
         <v>0</v>
       </c>
       <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
         <v>-100</v>
       </c>
-      <c r="BG14" t="s">
+      <c r="BF14" t="s">
         <v>167</v>
       </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
       <c r="BH14">
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ14">
-        <v>1</v>
+        <v>16636</v>
       </c>
       <c r="BK14">
-        <v>16636</v>
+        <v>0</v>
       </c>
       <c r="BL14">
         <v>0</v>
       </c>
       <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
         <v>-90</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>218</v>
       </c>
@@ -4628,173 +4681,173 @@
       <c r="I15" t="s">
         <v>220</v>
       </c>
-      <c r="K15" s="1">
-        <v>46301</v>
+      <c r="J15" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K15" t="s">
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="M15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N15" t="s">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R15" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" t="s">
+        <v>82</v>
+      </c>
+      <c r="T15" t="s">
+        <v>83</v>
+      </c>
+      <c r="U15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" t="s">
+        <v>86</v>
+      </c>
+      <c r="X15" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y15" t="s">
         <v>80</v>
       </c>
-      <c r="S15" t="s">
-        <v>81</v>
-      </c>
-      <c r="T15" t="s">
-        <v>82</v>
-      </c>
-      <c r="U15" t="s">
-        <v>83</v>
-      </c>
-      <c r="V15" t="s">
-        <v>84</v>
-      </c>
-      <c r="W15" t="s">
-        <v>85</v>
-      </c>
-      <c r="X15" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>223</v>
-      </c>
       <c r="Z15" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB15" t="s">
         <v>89</v>
       </c>
+      <c r="AB15">
+        <v>35</v>
+      </c>
       <c r="AC15">
-        <v>35</v>
-      </c>
-      <c r="AD15">
         <v>192000</v>
       </c>
+      <c r="AD15" t="s">
+        <v>90</v>
+      </c>
       <c r="AE15" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="AF15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="s">
         <v>224</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AJ15" t="s">
         <v>225</v>
       </c>
-      <c r="AI15">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="s">
+      <c r="AK15">
+        <v>384000</v>
+      </c>
+      <c r="AL15">
+        <v>16</v>
+      </c>
+      <c r="AM15" t="s">
         <v>224</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AN15" t="s">
         <v>225</v>
       </c>
-      <c r="AL15">
-        <v>384000</v>
-      </c>
-      <c r="AM15">
-        <v>16</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>225</v>
+      <c r="AO15">
+        <v>6</v>
       </c>
       <c r="AP15">
         <v>6</v>
       </c>
-      <c r="AQ15">
-        <v>6</v>
+      <c r="AQ15" t="s">
+        <v>224</v>
       </c>
       <c r="AR15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS15">
+        <v>7936</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AV15" t="s">
         <v>224</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AW15" t="s">
         <v>225</v>
       </c>
-      <c r="AT15">
-        <v>7936</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>225</v>
+      <c r="AX15">
+        <v>856135</v>
       </c>
       <c r="AY15">
-        <v>856135</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB15">
-        <v>-95</v>
+        <v>856147</v>
       </c>
       <c r="BC15">
-        <v>856147</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <v>0</v>
       </c>
       <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
         <v>-100</v>
       </c>
-      <c r="BG15" t="s">
+      <c r="BF15" t="s">
         <v>188</v>
       </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
       <c r="BH15">
         <v>0</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ15">
-        <v>1</v>
+        <v>16597</v>
       </c>
       <c r="BK15">
-        <v>16597</v>
+        <v>0</v>
       </c>
       <c r="BL15">
         <v>0</v>
       </c>
       <c r="BM15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
         <v>-90</v>
       </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -4822,173 +4875,173 @@
       <c r="I16" t="s">
         <v>180</v>
       </c>
-      <c r="K16" s="1">
-        <v>46301</v>
+      <c r="J16" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="M16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N16" t="s">
-        <v>231</v>
+        <v>77</v>
       </c>
       <c r="O16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" t="s">
+        <v>82</v>
+      </c>
+      <c r="T16" t="s">
+        <v>83</v>
+      </c>
+      <c r="U16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" t="s">
+        <v>85</v>
+      </c>
+      <c r="W16" t="s">
+        <v>86</v>
+      </c>
+      <c r="X16" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y16" t="s">
         <v>80</v>
       </c>
-      <c r="S16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T16" t="s">
-        <v>82</v>
-      </c>
-      <c r="U16" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16" t="s">
-        <v>85</v>
-      </c>
-      <c r="X16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>232</v>
-      </c>
       <c r="Z16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB16" t="s">
         <v>89</v>
       </c>
+      <c r="AB16">
+        <v>125</v>
+      </c>
       <c r="AC16">
-        <v>125</v>
-      </c>
-      <c r="AD16">
         <v>192000</v>
       </c>
+      <c r="AD16" t="s">
+        <v>90</v>
+      </c>
       <c r="AE16" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="AF16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="s">
         <v>233</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AJ16" t="s">
         <v>234</v>
       </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AK16">
+        <v>384000</v>
+      </c>
+      <c r="AL16">
+        <v>16</v>
+      </c>
+      <c r="AM16" t="s">
         <v>233</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AN16" t="s">
         <v>234</v>
       </c>
-      <c r="AL16">
-        <v>384000</v>
-      </c>
-      <c r="AM16">
-        <v>16</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>234</v>
+      <c r="AO16">
+        <v>6</v>
       </c>
       <c r="AP16">
         <v>6</v>
       </c>
-      <c r="AQ16">
-        <v>6</v>
+      <c r="AQ16" t="s">
+        <v>233</v>
       </c>
       <c r="AR16" t="s">
+        <v>234</v>
+      </c>
+      <c r="AS16">
+        <v>7518</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>235</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>236</v>
+      </c>
+      <c r="AV16" t="s">
         <v>233</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AW16" t="s">
         <v>234</v>
       </c>
-      <c r="AT16">
-        <v>7518</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>235</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>234</v>
+      <c r="AX16">
+        <v>856159</v>
       </c>
       <c r="AY16">
-        <v>856159</v>
+        <v>0</v>
       </c>
       <c r="AZ16">
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB16">
-        <v>-95</v>
+        <v>856177</v>
       </c>
       <c r="BC16">
-        <v>856177</v>
+        <v>0</v>
       </c>
       <c r="BD16">
         <v>0</v>
       </c>
       <c r="BE16">
-        <v>0</v>
-      </c>
-      <c r="BF16">
         <v>-100</v>
       </c>
-      <c r="BG16" t="s">
+      <c r="BF16" t="s">
         <v>157</v>
       </c>
+      <c r="BG16">
+        <v>0</v>
+      </c>
       <c r="BH16">
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ16">
-        <v>1</v>
+        <v>16536</v>
       </c>
       <c r="BK16">
-        <v>16536</v>
+        <v>0</v>
       </c>
       <c r="BL16">
         <v>0</v>
       </c>
       <c r="BM16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
         <v>-90</v>
       </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>237</v>
       </c>
@@ -5016,173 +5069,173 @@
       <c r="I17" t="s">
         <v>220</v>
       </c>
-      <c r="K17" s="1">
-        <v>46301</v>
+      <c r="J17" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="M17" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N17" t="s">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s">
+        <v>81</v>
+      </c>
+      <c r="S17" t="s">
+        <v>82</v>
+      </c>
+      <c r="T17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U17" t="s">
+        <v>84</v>
+      </c>
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" t="s">
+        <v>86</v>
+      </c>
+      <c r="X17" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y17" t="s">
         <v>80</v>
       </c>
-      <c r="S17" t="s">
-        <v>81</v>
-      </c>
-      <c r="T17" t="s">
-        <v>82</v>
-      </c>
-      <c r="U17" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" t="s">
-        <v>84</v>
-      </c>
-      <c r="W17" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>241</v>
-      </c>
       <c r="Z17" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB17" t="s">
         <v>89</v>
       </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
       <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
         <v>192000</v>
       </c>
+      <c r="AD17" t="s">
+        <v>90</v>
+      </c>
       <c r="AE17" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="AF17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="s">
         <v>242</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AJ17" t="s">
         <v>243</v>
       </c>
-      <c r="AI17">
-        <v>1</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AK17">
+        <v>384000</v>
+      </c>
+      <c r="AL17">
+        <v>16</v>
+      </c>
+      <c r="AM17" t="s">
         <v>242</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AN17" t="s">
         <v>243</v>
       </c>
-      <c r="AL17">
-        <v>384000</v>
-      </c>
-      <c r="AM17">
-        <v>16</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>242</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>243</v>
+      <c r="AO17">
+        <v>6</v>
       </c>
       <c r="AP17">
         <v>6</v>
       </c>
-      <c r="AQ17">
-        <v>6</v>
+      <c r="AQ17" t="s">
+        <v>242</v>
       </c>
       <c r="AR17" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS17">
+        <v>7930</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>244</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV17" t="s">
         <v>242</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AW17" t="s">
         <v>243</v>
       </c>
-      <c r="AT17">
-        <v>7930</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>242</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>243</v>
+      <c r="AX17">
+        <v>856138</v>
       </c>
       <c r="AY17">
-        <v>856138</v>
+        <v>0</v>
       </c>
       <c r="AZ17">
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB17">
-        <v>-95</v>
+        <v>856151</v>
       </c>
       <c r="BC17">
-        <v>856151</v>
+        <v>0</v>
       </c>
       <c r="BD17">
         <v>0</v>
       </c>
       <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
         <v>-100</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BF17" t="s">
         <v>147</v>
       </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
       <c r="BH17">
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17">
-        <v>1</v>
+        <v>15771</v>
       </c>
       <c r="BK17">
-        <v>15771</v>
+        <v>0</v>
       </c>
       <c r="BL17">
         <v>0</v>
       </c>
       <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
         <v>-90</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>246</v>
       </c>
@@ -5210,173 +5263,173 @@
       <c r="I18" t="s">
         <v>220</v>
       </c>
-      <c r="K18" s="1">
-        <v>46304</v>
+      <c r="J18" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
+        <v>248</v>
       </c>
       <c r="M18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N18" t="s">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R18" t="s">
+        <v>81</v>
+      </c>
+      <c r="S18" t="s">
+        <v>82</v>
+      </c>
+      <c r="T18" t="s">
+        <v>83</v>
+      </c>
+      <c r="U18" t="s">
+        <v>84</v>
+      </c>
+      <c r="V18" t="s">
+        <v>85</v>
+      </c>
+      <c r="W18" t="s">
+        <v>86</v>
+      </c>
+      <c r="X18" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y18" t="s">
         <v>80</v>
       </c>
-      <c r="S18" t="s">
-        <v>81</v>
-      </c>
-      <c r="T18" t="s">
-        <v>82</v>
-      </c>
-      <c r="U18" t="s">
-        <v>83</v>
-      </c>
-      <c r="V18" t="s">
-        <v>84</v>
-      </c>
-      <c r="W18" t="s">
-        <v>85</v>
-      </c>
-      <c r="X18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>250</v>
-      </c>
       <c r="Z18" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB18" t="s">
         <v>89</v>
       </c>
+      <c r="AB18">
+        <v>100</v>
+      </c>
       <c r="AC18">
-        <v>100</v>
-      </c>
-      <c r="AD18">
         <v>192000</v>
       </c>
+      <c r="AD18" t="s">
+        <v>90</v>
+      </c>
       <c r="AE18" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="AF18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH18">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="s">
         <v>251</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AJ18" t="s">
         <v>252</v>
       </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-      <c r="AJ18" t="s">
+      <c r="AK18">
+        <v>384000</v>
+      </c>
+      <c r="AL18">
+        <v>16</v>
+      </c>
+      <c r="AM18" t="s">
         <v>251</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AN18" t="s">
         <v>252</v>
       </c>
-      <c r="AL18">
-        <v>384000</v>
-      </c>
-      <c r="AM18">
-        <v>16</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>251</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>252</v>
+      <c r="AO18">
+        <v>6</v>
       </c>
       <c r="AP18">
         <v>6</v>
       </c>
-      <c r="AQ18">
-        <v>6</v>
+      <c r="AQ18" t="s">
+        <v>251</v>
       </c>
       <c r="AR18" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS18">
+        <v>8595</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV18" t="s">
         <v>251</v>
       </c>
-      <c r="AS18" t="s">
+      <c r="AW18" t="s">
         <v>252</v>
       </c>
-      <c r="AT18">
-        <v>8595</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>253</v>
-      </c>
-      <c r="AV18" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW18" t="s">
-        <v>251</v>
-      </c>
-      <c r="AX18" t="s">
-        <v>252</v>
+      <c r="AX18">
+        <v>856155</v>
       </c>
       <c r="AY18">
-        <v>856155</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB18">
-        <v>-95</v>
+        <v>856166</v>
       </c>
       <c r="BC18">
-        <v>856166</v>
+        <v>0</v>
       </c>
       <c r="BD18">
         <v>0</v>
       </c>
       <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
         <v>-100</v>
       </c>
-      <c r="BG18" t="s">
+      <c r="BF18" t="s">
         <v>255</v>
       </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
       <c r="BH18">
         <v>0</v>
       </c>
       <c r="BI18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>15968</v>
       </c>
       <c r="BK18">
-        <v>15968</v>
+        <v>0</v>
       </c>
       <c r="BL18">
         <v>0</v>
       </c>
       <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
         <v>-90</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -5404,173 +5457,173 @@
       <c r="I19" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="1">
-        <v>46321</v>
+      <c r="J19" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>259</v>
       </c>
       <c r="M19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O19" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
+        <v>81</v>
+      </c>
+      <c r="S19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" t="s">
+        <v>83</v>
+      </c>
+      <c r="U19" t="s">
+        <v>84</v>
+      </c>
+      <c r="V19" t="s">
+        <v>85</v>
+      </c>
+      <c r="W19" t="s">
+        <v>86</v>
+      </c>
+      <c r="X19" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y19" t="s">
         <v>80</v>
       </c>
-      <c r="S19" t="s">
-        <v>81</v>
-      </c>
-      <c r="T19" t="s">
-        <v>82</v>
-      </c>
-      <c r="U19" t="s">
-        <v>83</v>
-      </c>
-      <c r="V19" t="s">
-        <v>84</v>
-      </c>
-      <c r="W19" t="s">
-        <v>85</v>
-      </c>
-      <c r="X19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>262</v>
-      </c>
       <c r="Z19" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB19" t="s">
         <v>89</v>
       </c>
+      <c r="AB19">
+        <v>20</v>
+      </c>
       <c r="AC19">
-        <v>20</v>
-      </c>
-      <c r="AD19">
         <v>192000</v>
       </c>
+      <c r="AD19" t="s">
+        <v>90</v>
+      </c>
       <c r="AE19" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
       <c r="AF19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH19">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="s">
         <v>263</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AJ19" t="s">
         <v>264</v>
       </c>
-      <c r="AI19">
-        <v>1</v>
-      </c>
-      <c r="AJ19" t="s">
+      <c r="AK19">
+        <v>384000</v>
+      </c>
+      <c r="AL19">
+        <v>16</v>
+      </c>
+      <c r="AM19" t="s">
         <v>263</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AN19" t="s">
         <v>264</v>
       </c>
-      <c r="AL19">
-        <v>384000</v>
-      </c>
-      <c r="AM19">
-        <v>16</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>264</v>
+      <c r="AO19">
+        <v>6</v>
       </c>
       <c r="AP19">
         <v>6</v>
       </c>
-      <c r="AQ19">
-        <v>6</v>
+      <c r="AQ19" t="s">
+        <v>263</v>
       </c>
       <c r="AR19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS19">
+        <v>7936</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>266</v>
+      </c>
+      <c r="AV19" t="s">
         <v>263</v>
       </c>
-      <c r="AS19" t="s">
+      <c r="AW19" t="s">
         <v>264</v>
       </c>
-      <c r="AT19">
-        <v>7936</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>263</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>264</v>
+      <c r="AX19">
+        <v>856163</v>
       </c>
       <c r="AY19">
-        <v>856163</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB19">
-        <v>-95</v>
+        <v>856171</v>
       </c>
       <c r="BC19">
-        <v>856171</v>
+        <v>0</v>
       </c>
       <c r="BD19">
         <v>0</v>
       </c>
       <c r="BE19">
-        <v>0</v>
-      </c>
-      <c r="BF19">
         <v>-100</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BF19" t="s">
         <v>157</v>
       </c>
+      <c r="BG19">
+        <v>0</v>
+      </c>
       <c r="BH19">
         <v>0</v>
       </c>
       <c r="BI19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ19">
-        <v>1</v>
+        <v>16431</v>
       </c>
       <c r="BK19">
-        <v>16431</v>
+        <v>0</v>
       </c>
       <c r="BL19">
         <v>0</v>
       </c>
       <c r="BM19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
         <v>-90</v>
       </c>
     </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>267</v>
       </c>
@@ -5598,173 +5651,173 @@
       <c r="I20" t="s">
         <v>258</v>
       </c>
-      <c r="K20" s="1">
-        <v>46322</v>
+      <c r="J20" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K20" t="s">
+        <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c r="M20" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="N20" t="s">
-        <v>333</v>
+        <v>261</v>
       </c>
       <c r="O20" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" t="s">
+        <v>81</v>
+      </c>
+      <c r="S20" t="s">
+        <v>82</v>
+      </c>
+      <c r="T20" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" t="s">
+        <v>84</v>
+      </c>
+      <c r="V20" t="s">
+        <v>85</v>
+      </c>
+      <c r="W20" t="s">
+        <v>86</v>
+      </c>
+      <c r="X20" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y20" t="s">
         <v>80</v>
       </c>
-      <c r="S20" t="s">
-        <v>81</v>
-      </c>
-      <c r="T20" t="s">
-        <v>82</v>
-      </c>
-      <c r="U20" t="s">
-        <v>83</v>
-      </c>
-      <c r="V20" t="s">
-        <v>84</v>
-      </c>
-      <c r="W20" t="s">
-        <v>85</v>
-      </c>
-      <c r="X20" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>270</v>
-      </c>
       <c r="Z20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB20" t="s">
         <v>89</v>
       </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
       <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
         <v>192000</v>
       </c>
+      <c r="AD20" t="s">
+        <v>90</v>
+      </c>
       <c r="AE20" t="s">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="AF20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="s">
         <v>271</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AJ20" t="s">
         <v>272</v>
       </c>
-      <c r="AI20">
-        <v>1</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AK20">
+        <v>384000</v>
+      </c>
+      <c r="AL20">
+        <v>16</v>
+      </c>
+      <c r="AM20" t="s">
         <v>271</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AN20" t="s">
         <v>272</v>
       </c>
-      <c r="AL20">
-        <v>384000</v>
-      </c>
-      <c r="AM20">
-        <v>16</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>272</v>
+      <c r="AO20">
+        <v>6</v>
       </c>
       <c r="AP20">
         <v>6</v>
       </c>
-      <c r="AQ20">
-        <v>6</v>
+      <c r="AQ20" t="s">
+        <v>271</v>
       </c>
       <c r="AR20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AS20">
+        <v>8595</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>273</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AV20" t="s">
         <v>271</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AW20" t="s">
         <v>272</v>
       </c>
-      <c r="AT20">
-        <v>8595</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>273</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>272</v>
+      <c r="AX20">
+        <v>856141</v>
       </c>
       <c r="AY20">
-        <v>856141</v>
+        <v>0</v>
       </c>
       <c r="AZ20">
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB20">
-        <v>-95</v>
+        <v>856144</v>
       </c>
       <c r="BC20">
-        <v>856144</v>
+        <v>0</v>
       </c>
       <c r="BD20">
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>0</v>
-      </c>
-      <c r="BF20">
         <v>-100</v>
       </c>
-      <c r="BG20" t="s">
+      <c r="BF20" t="s">
         <v>147</v>
       </c>
+      <c r="BG20">
+        <v>0</v>
+      </c>
       <c r="BH20">
         <v>0</v>
       </c>
       <c r="BI20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ20">
-        <v>1</v>
+        <v>16636</v>
       </c>
       <c r="BK20">
-        <v>16636</v>
+        <v>0</v>
       </c>
       <c r="BL20">
         <v>0</v>
       </c>
       <c r="BM20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
         <v>-90</v>
       </c>
     </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>275</v>
       </c>
@@ -5792,173 +5845,173 @@
       <c r="I21" t="s">
         <v>277</v>
       </c>
-      <c r="K21" s="1">
-        <v>46322</v>
+      <c r="J21" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K21" t="s">
+        <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="M21" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N21" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="O21" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V21" t="s">
+        <v>85</v>
+      </c>
+      <c r="W21" t="s">
+        <v>86</v>
+      </c>
+      <c r="X21" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y21" t="s">
         <v>80</v>
       </c>
-      <c r="S21" t="s">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s">
-        <v>82</v>
-      </c>
-      <c r="U21" t="s">
-        <v>83</v>
-      </c>
-      <c r="V21" t="s">
-        <v>84</v>
-      </c>
-      <c r="W21" t="s">
-        <v>85</v>
-      </c>
-      <c r="X21" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>280</v>
-      </c>
       <c r="Z21" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB21" t="s">
         <v>89</v>
       </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
       <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
         <v>192000</v>
       </c>
+      <c r="AD21" t="s">
+        <v>90</v>
+      </c>
       <c r="AE21" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="AF21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="s">
         <v>281</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AJ21" t="s">
         <v>282</v>
       </c>
-      <c r="AI21">
-        <v>1</v>
-      </c>
-      <c r="AJ21" t="s">
+      <c r="AK21">
+        <v>384000</v>
+      </c>
+      <c r="AL21">
+        <v>16</v>
+      </c>
+      <c r="AM21" t="s">
         <v>281</v>
       </c>
-      <c r="AK21" t="s">
+      <c r="AN21" t="s">
         <v>282</v>
       </c>
-      <c r="AL21">
-        <v>384000</v>
-      </c>
-      <c r="AM21">
-        <v>16</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>282</v>
+      <c r="AO21">
+        <v>6</v>
       </c>
       <c r="AP21">
         <v>6</v>
       </c>
-      <c r="AQ21">
-        <v>6</v>
+      <c r="AQ21" t="s">
+        <v>281</v>
       </c>
       <c r="AR21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AS21">
+        <v>7521</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>283</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>284</v>
+      </c>
+      <c r="AV21" t="s">
         <v>281</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AW21" t="s">
         <v>282</v>
       </c>
-      <c r="AT21">
-        <v>7521</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>281</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>282</v>
+      <c r="AX21">
+        <v>856138</v>
       </c>
       <c r="AY21">
-        <v>856138</v>
+        <v>0</v>
       </c>
       <c r="AZ21">
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB21">
-        <v>-95</v>
+        <v>856151</v>
       </c>
       <c r="BC21">
-        <v>856151</v>
+        <v>0</v>
       </c>
       <c r="BD21">
         <v>0</v>
       </c>
       <c r="BE21">
-        <v>0</v>
-      </c>
-      <c r="BF21">
         <v>-100</v>
       </c>
-      <c r="BG21" t="s">
+      <c r="BF21" t="s">
         <v>208</v>
       </c>
+      <c r="BG21">
+        <v>0</v>
+      </c>
       <c r="BH21">
         <v>0</v>
       </c>
       <c r="BI21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ21">
-        <v>1</v>
+        <v>16396</v>
       </c>
       <c r="BK21">
-        <v>16396</v>
+        <v>0</v>
       </c>
       <c r="BL21">
         <v>0</v>
       </c>
       <c r="BM21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
         <v>-90</v>
       </c>
     </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>285</v>
       </c>
@@ -5986,173 +6039,173 @@
       <c r="I22" t="s">
         <v>277</v>
       </c>
-      <c r="K22" s="1">
-        <v>46323</v>
+      <c r="J22" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="M22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N22" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="O22" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s">
+        <v>81</v>
+      </c>
+      <c r="S22" t="s">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" t="s">
+        <v>85</v>
+      </c>
+      <c r="W22" t="s">
+        <v>86</v>
+      </c>
+      <c r="X22" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y22" t="s">
         <v>80</v>
       </c>
-      <c r="S22" t="s">
-        <v>81</v>
-      </c>
-      <c r="T22" t="s">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s">
-        <v>83</v>
-      </c>
-      <c r="V22" t="s">
-        <v>84</v>
-      </c>
-      <c r="W22" t="s">
-        <v>85</v>
-      </c>
-      <c r="X22" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>289</v>
-      </c>
       <c r="Z22" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB22" t="s">
         <v>89</v>
       </c>
+      <c r="AB22">
+        <v>20</v>
+      </c>
       <c r="AC22">
-        <v>20</v>
-      </c>
-      <c r="AD22">
         <v>192000</v>
       </c>
+      <c r="AD22" t="s">
+        <v>90</v>
+      </c>
       <c r="AE22" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="AF22" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="s">
         <v>290</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AJ22" t="s">
         <v>291</v>
       </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AK22">
+        <v>384000</v>
+      </c>
+      <c r="AL22">
+        <v>16</v>
+      </c>
+      <c r="AM22" t="s">
         <v>290</v>
       </c>
-      <c r="AK22" t="s">
+      <c r="AN22" t="s">
         <v>291</v>
       </c>
-      <c r="AL22">
-        <v>384000</v>
-      </c>
-      <c r="AM22">
-        <v>16</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>291</v>
+      <c r="AO22">
+        <v>6</v>
       </c>
       <c r="AP22">
         <v>6</v>
       </c>
-      <c r="AQ22">
-        <v>6</v>
+      <c r="AQ22" t="s">
+        <v>290</v>
       </c>
       <c r="AR22" t="s">
+        <v>291</v>
+      </c>
+      <c r="AS22">
+        <v>7518</v>
+      </c>
+      <c r="AT22" t="s">
         <v>290</v>
       </c>
-      <c r="AS22" t="s">
+      <c r="AU22" t="s">
+        <v>292</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>290</v>
+      </c>
+      <c r="AW22" t="s">
         <v>291</v>
       </c>
-      <c r="AT22">
-        <v>7518</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>290</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>290</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>291</v>
+      <c r="AX22">
+        <v>856156</v>
       </c>
       <c r="AY22">
-        <v>856156</v>
+        <v>0</v>
       </c>
       <c r="AZ22">
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB22">
-        <v>-95</v>
+        <v>856167</v>
       </c>
       <c r="BC22">
-        <v>856167</v>
+        <v>0</v>
       </c>
       <c r="BD22">
         <v>0</v>
       </c>
       <c r="BE22">
-        <v>0</v>
-      </c>
-      <c r="BF22">
         <v>-100</v>
       </c>
-      <c r="BG22" t="s">
+      <c r="BF22" t="s">
         <v>293</v>
       </c>
+      <c r="BG22">
+        <v>0</v>
+      </c>
       <c r="BH22">
         <v>0</v>
       </c>
       <c r="BI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ22">
-        <v>1</v>
+        <v>16536</v>
       </c>
       <c r="BK22">
-        <v>16536</v>
+        <v>0</v>
       </c>
       <c r="BL22">
         <v>0</v>
       </c>
       <c r="BM22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
         <v>-90</v>
       </c>
     </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>294</v>
       </c>
@@ -6180,173 +6233,173 @@
       <c r="I23" t="s">
         <v>296</v>
       </c>
-      <c r="K23" s="1">
-        <v>46336</v>
+      <c r="J23" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K23" t="s">
+        <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>74</v>
+        <v>297</v>
       </c>
       <c r="M23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N23" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="O23" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s">
+        <v>81</v>
+      </c>
+      <c r="S23" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" t="s">
+        <v>84</v>
+      </c>
+      <c r="V23" t="s">
+        <v>85</v>
+      </c>
+      <c r="W23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X23" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y23" t="s">
         <v>80</v>
       </c>
-      <c r="S23" t="s">
-        <v>81</v>
-      </c>
-      <c r="T23" t="s">
-        <v>82</v>
-      </c>
-      <c r="U23" t="s">
-        <v>83</v>
-      </c>
-      <c r="V23" t="s">
-        <v>84</v>
-      </c>
-      <c r="W23" t="s">
-        <v>85</v>
-      </c>
-      <c r="X23" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>299</v>
-      </c>
       <c r="Z23" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA23" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB23" t="s">
         <v>89</v>
       </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
       <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
         <v>192000</v>
       </c>
+      <c r="AD23" t="s">
+        <v>90</v>
+      </c>
       <c r="AE23" t="s">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="AF23" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH23">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="s">
         <v>300</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AJ23" t="s">
         <v>301</v>
       </c>
-      <c r="AI23">
-        <v>1</v>
-      </c>
-      <c r="AJ23" t="s">
+      <c r="AK23">
+        <v>384000</v>
+      </c>
+      <c r="AL23">
+        <v>16</v>
+      </c>
+      <c r="AM23" t="s">
         <v>300</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AN23" t="s">
         <v>301</v>
       </c>
-      <c r="AL23">
-        <v>384000</v>
-      </c>
-      <c r="AM23">
-        <v>16</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>301</v>
+      <c r="AO23">
+        <v>6</v>
       </c>
       <c r="AP23">
         <v>6</v>
       </c>
-      <c r="AQ23">
-        <v>6</v>
+      <c r="AQ23" t="s">
+        <v>300</v>
       </c>
       <c r="AR23" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS23">
+        <v>8595</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV23" t="s">
         <v>300</v>
       </c>
-      <c r="AS23" t="s">
+      <c r="AW23" t="s">
         <v>301</v>
       </c>
-      <c r="AT23">
-        <v>8595</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>302</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>303</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>300</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>301</v>
+      <c r="AX23">
+        <v>856141</v>
       </c>
       <c r="AY23">
-        <v>856141</v>
+        <v>0</v>
       </c>
       <c r="AZ23">
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB23">
-        <v>-95</v>
+        <v>856144</v>
       </c>
       <c r="BC23">
-        <v>856144</v>
+        <v>0</v>
       </c>
       <c r="BD23">
         <v>0</v>
       </c>
       <c r="BE23">
-        <v>0</v>
-      </c>
-      <c r="BF23">
         <v>-100</v>
       </c>
-      <c r="BG23" t="s">
+      <c r="BF23" t="s">
         <v>157</v>
       </c>
+      <c r="BG23">
+        <v>0</v>
+      </c>
       <c r="BH23">
         <v>0</v>
       </c>
       <c r="BI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ23">
-        <v>1</v>
+        <v>16636</v>
       </c>
       <c r="BK23">
-        <v>16636</v>
+        <v>0</v>
       </c>
       <c r="BL23">
         <v>0</v>
       </c>
       <c r="BM23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
         <v>-90</v>
       </c>
     </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>304</v>
       </c>
@@ -6374,173 +6427,173 @@
       <c r="I24" t="s">
         <v>306</v>
       </c>
-      <c r="K24" s="1">
-        <v>46346</v>
+      <c r="J24" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K24" t="s">
+        <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="M24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O24" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s">
+        <v>81</v>
+      </c>
+      <c r="S24" t="s">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s">
+        <v>83</v>
+      </c>
+      <c r="U24" t="s">
+        <v>84</v>
+      </c>
+      <c r="V24" t="s">
+        <v>85</v>
+      </c>
+      <c r="W24" t="s">
+        <v>86</v>
+      </c>
+      <c r="X24" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y24" t="s">
         <v>80</v>
       </c>
-      <c r="S24" t="s">
-        <v>81</v>
-      </c>
-      <c r="T24" t="s">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s">
-        <v>83</v>
-      </c>
-      <c r="V24" t="s">
-        <v>84</v>
-      </c>
-      <c r="W24" t="s">
-        <v>85</v>
-      </c>
-      <c r="X24" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>310</v>
-      </c>
       <c r="Z24" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB24" t="s">
         <v>89</v>
       </c>
+      <c r="AB24">
+        <v>15</v>
+      </c>
       <c r="AC24">
-        <v>15</v>
-      </c>
-      <c r="AD24">
         <v>192000</v>
       </c>
+      <c r="AD24" t="s">
+        <v>90</v>
+      </c>
       <c r="AE24" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="AF24" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH24">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="s">
         <v>311</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AJ24" t="s">
         <v>312</v>
       </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AJ24" t="s">
+      <c r="AK24">
+        <v>384000</v>
+      </c>
+      <c r="AL24">
+        <v>16</v>
+      </c>
+      <c r="AM24" t="s">
         <v>311</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AN24" t="s">
         <v>312</v>
       </c>
-      <c r="AL24">
-        <v>384000</v>
-      </c>
-      <c r="AM24">
-        <v>16</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>311</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>312</v>
+      <c r="AO24">
+        <v>6</v>
       </c>
       <c r="AP24">
         <v>6</v>
       </c>
-      <c r="AQ24">
-        <v>6</v>
+      <c r="AQ24" t="s">
+        <v>311</v>
       </c>
       <c r="AR24" t="s">
+        <v>312</v>
+      </c>
+      <c r="AS24">
+        <v>7517</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV24" t="s">
         <v>311</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AW24" t="s">
         <v>312</v>
       </c>
-      <c r="AT24">
-        <v>7517</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>313</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>314</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>311</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>312</v>
+      <c r="AX24">
+        <v>856163</v>
       </c>
       <c r="AY24">
-        <v>856163</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB24">
-        <v>-95</v>
+        <v>856171</v>
       </c>
       <c r="BC24">
-        <v>856171</v>
+        <v>0</v>
       </c>
       <c r="BD24">
         <v>0</v>
       </c>
       <c r="BE24">
-        <v>0</v>
-      </c>
-      <c r="BF24">
         <v>-100</v>
       </c>
-      <c r="BG24" t="s">
+      <c r="BF24" t="s">
         <v>167</v>
       </c>
+      <c r="BG24">
+        <v>0</v>
+      </c>
       <c r="BH24">
         <v>0</v>
       </c>
       <c r="BI24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ24">
-        <v>1</v>
+        <v>16597</v>
       </c>
       <c r="BK24">
-        <v>16597</v>
+        <v>0</v>
       </c>
       <c r="BL24">
         <v>0</v>
       </c>
       <c r="BM24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
         <v>-90</v>
       </c>
     </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>315</v>
       </c>
@@ -6568,173 +6621,173 @@
       <c r="I25" t="s">
         <v>306</v>
       </c>
-      <c r="K25" s="1">
-        <v>46348</v>
+      <c r="J25" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K25" t="s">
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="M25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N25" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="O25" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s">
+        <v>81</v>
+      </c>
+      <c r="S25" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" t="s">
+        <v>83</v>
+      </c>
+      <c r="U25" t="s">
+        <v>84</v>
+      </c>
+      <c r="V25" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" t="s">
+        <v>86</v>
+      </c>
+      <c r="X25" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y25" t="s">
         <v>80</v>
       </c>
-      <c r="S25" t="s">
-        <v>81</v>
-      </c>
-      <c r="T25" t="s">
-        <v>82</v>
-      </c>
-      <c r="U25" t="s">
-        <v>83</v>
-      </c>
-      <c r="V25" t="s">
-        <v>84</v>
-      </c>
-      <c r="W25" t="s">
-        <v>85</v>
-      </c>
-      <c r="X25" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>319</v>
-      </c>
       <c r="Z25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA25" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB25" t="s">
         <v>89</v>
       </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
       <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
         <v>192000</v>
       </c>
+      <c r="AD25" t="s">
+        <v>90</v>
+      </c>
       <c r="AE25" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="AF25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="s">
         <v>320</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AJ25" t="s">
         <v>321</v>
       </c>
-      <c r="AI25">
-        <v>1</v>
-      </c>
-      <c r="AJ25" t="s">
+      <c r="AK25">
+        <v>384000</v>
+      </c>
+      <c r="AL25">
+        <v>16</v>
+      </c>
+      <c r="AM25" t="s">
         <v>320</v>
       </c>
-      <c r="AK25" t="s">
+      <c r="AN25" t="s">
         <v>321</v>
       </c>
-      <c r="AL25">
-        <v>384000</v>
-      </c>
-      <c r="AM25">
-        <v>16</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>321</v>
+      <c r="AO25">
+        <v>6</v>
       </c>
       <c r="AP25">
         <v>6</v>
       </c>
-      <c r="AQ25">
-        <v>6</v>
+      <c r="AQ25" t="s">
+        <v>320</v>
       </c>
       <c r="AR25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS25">
+        <v>7939</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV25" t="s">
         <v>320</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AW25" t="s">
         <v>321</v>
       </c>
-      <c r="AT25">
-        <v>7939</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>322</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>323</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>320</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>321</v>
+      <c r="AX25">
+        <v>856138</v>
       </c>
       <c r="AY25">
-        <v>856138</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB25">
-        <v>-95</v>
+        <v>856151</v>
       </c>
       <c r="BC25">
-        <v>856151</v>
+        <v>0</v>
       </c>
       <c r="BD25">
         <v>0</v>
       </c>
       <c r="BE25">
-        <v>0</v>
-      </c>
-      <c r="BF25">
         <v>-100</v>
       </c>
-      <c r="BG25" t="s">
+      <c r="BF25" t="s">
         <v>208</v>
       </c>
+      <c r="BG25">
+        <v>0</v>
+      </c>
       <c r="BH25">
         <v>0</v>
       </c>
       <c r="BI25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ25">
-        <v>1</v>
+        <v>16431</v>
       </c>
       <c r="BK25">
-        <v>16431</v>
+        <v>0</v>
       </c>
       <c r="BL25">
         <v>0</v>
       </c>
       <c r="BM25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
         <v>-90</v>
       </c>
     </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>324</v>
       </c>
@@ -6762,169 +6815,169 @@
       <c r="I26" t="s">
         <v>306</v>
       </c>
-      <c r="K26" s="1">
-        <v>46349</v>
+      <c r="J26" s="1">
+        <v>45758</v>
+      </c>
+      <c r="K26" t="s">
+        <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="M26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N26" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="O26" t="s">
-        <v>309</v>
+        <v>78</v>
       </c>
       <c r="P26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R26" t="s">
+        <v>81</v>
+      </c>
+      <c r="S26" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" t="s">
+        <v>83</v>
+      </c>
+      <c r="U26" t="s">
+        <v>84</v>
+      </c>
+      <c r="V26" t="s">
+        <v>85</v>
+      </c>
+      <c r="W26" t="s">
+        <v>86</v>
+      </c>
+      <c r="X26" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y26" t="s">
         <v>80</v>
       </c>
-      <c r="S26" t="s">
-        <v>81</v>
-      </c>
-      <c r="T26" t="s">
-        <v>82</v>
-      </c>
-      <c r="U26" t="s">
-        <v>83</v>
-      </c>
-      <c r="V26" t="s">
-        <v>84</v>
-      </c>
-      <c r="W26" t="s">
-        <v>85</v>
-      </c>
-      <c r="X26" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>328</v>
-      </c>
       <c r="Z26" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB26" t="s">
         <v>89</v>
       </c>
+      <c r="AB26">
+        <v>100</v>
+      </c>
       <c r="AC26">
-        <v>100</v>
-      </c>
-      <c r="AD26">
         <v>192000</v>
       </c>
+      <c r="AD26" t="s">
+        <v>90</v>
+      </c>
       <c r="AE26" t="s">
-        <v>90</v>
+        <v>329</v>
       </c>
       <c r="AF26" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH26">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="s">
         <v>329</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AJ26" t="s">
         <v>330</v>
       </c>
-      <c r="AI26">
-        <v>1</v>
-      </c>
-      <c r="AJ26" t="s">
+      <c r="AK26">
+        <v>384000</v>
+      </c>
+      <c r="AL26">
+        <v>16</v>
+      </c>
+      <c r="AM26" t="s">
         <v>329</v>
       </c>
-      <c r="AK26" t="s">
+      <c r="AN26" t="s">
         <v>330</v>
       </c>
-      <c r="AL26">
-        <v>384000</v>
-      </c>
-      <c r="AM26">
-        <v>16</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>329</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>330</v>
+      <c r="AO26">
+        <v>6</v>
       </c>
       <c r="AP26">
         <v>6</v>
       </c>
-      <c r="AQ26">
-        <v>6</v>
+      <c r="AQ26" t="s">
+        <v>329</v>
       </c>
       <c r="AR26" t="s">
+        <v>330</v>
+      </c>
+      <c r="AS26">
+        <v>7950</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>331</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>332</v>
+      </c>
+      <c r="AV26" t="s">
         <v>329</v>
       </c>
-      <c r="AS26" t="s">
+      <c r="AW26" t="s">
         <v>330</v>
       </c>
-      <c r="AT26">
-        <v>7950</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>331</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>332</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>329</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>330</v>
+      <c r="AX26">
+        <v>856139</v>
       </c>
       <c r="AY26">
-        <v>856139</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>-95</v>
       </c>
       <c r="BB26">
-        <v>-95</v>
+        <v>856148</v>
       </c>
       <c r="BC26">
-        <v>856148</v>
+        <v>0</v>
       </c>
       <c r="BD26">
         <v>0</v>
       </c>
       <c r="BE26">
-        <v>0</v>
-      </c>
-      <c r="BF26">
         <v>-100</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BF26" t="s">
         <v>147</v>
       </c>
+      <c r="BG26">
+        <v>0</v>
+      </c>
       <c r="BH26">
         <v>0</v>
       </c>
       <c r="BI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26">
-        <v>1</v>
+        <v>16396</v>
       </c>
       <c r="BK26">
-        <v>16396</v>
+        <v>0</v>
       </c>
       <c r="BL26">
         <v>0</v>
       </c>
       <c r="BM26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
         <v>-90</v>
       </c>
     </row>

--- a/R/Spreadsheets & Templates/ExportedMobileMarineData.xlsx
+++ b/R/Spreadsheets & Templates/ExportedMobileMarineData.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kourtney.burger\Documents\GitHub\NCEI-PACE-Data-Archive\R\Spreadsheets &amp; Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C778B5EB-B129-469E-8A42-1C5F9C19C12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C4F13E-A37B-4779-BB93-1AF6EB165CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportedMobileMarineData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="335">
   <si>
     <t>Data Collection Name</t>
   </si>
@@ -247,12 +261,6 @@
     <t>UTC</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_001</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_001</t>
-  </si>
-  <si>
     <t>Cory Hom-Weaver</t>
   </si>
   <si>
@@ -316,12 +324,6 @@
     <t>CalCurCEAS_002</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_002</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_002</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_002</t>
   </si>
   <si>
@@ -346,12 +348,6 @@
     <t>CalCurCEAS_003</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_003</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_003</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_003</t>
   </si>
   <si>
@@ -376,12 +372,6 @@
     <t>CalCurCEAS_004</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_004</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_004</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_004</t>
   </si>
   <si>
@@ -409,12 +399,6 @@
     <t>Oregon</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_006</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_006</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_006</t>
   </si>
   <si>
@@ -439,12 +423,6 @@
     <t>CalCurCEAS_008</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_008</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_008</t>
-  </si>
-  <si>
     <t>Cory Hom-Weaver;Karin Forney</t>
   </si>
   <si>
@@ -472,12 +450,6 @@
     <t>CalCurCEAS_009</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_009</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_009</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_009</t>
   </si>
   <si>
@@ -502,12 +474,6 @@
     <t>CalCurCEAS_010</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_010</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_010</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_010</t>
   </si>
   <si>
@@ -532,12 +498,6 @@
     <t>CalCurCEAS_011</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_011</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_011</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_011</t>
   </si>
   <si>
@@ -565,12 +525,6 @@
     <t>Humboldt</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_012</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_012</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_012</t>
   </si>
   <si>
@@ -595,12 +549,6 @@
     <t>CalCurCEAS_013</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_013</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_013</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_013</t>
   </si>
   <si>
@@ -625,12 +573,6 @@
     <t>CalCurCEAS_014</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_014</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_014</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_014</t>
   </si>
   <si>
@@ -655,12 +597,6 @@
     <t>CalCurCEAS_015</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_015</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_015</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_015</t>
   </si>
   <si>
@@ -685,12 +621,6 @@
     <t>Mendocino</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_016</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_016</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_016</t>
   </si>
   <si>
@@ -712,12 +642,6 @@
     <t>CalCurCEAS_017</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_017</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_017</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_017</t>
   </si>
   <si>
@@ -739,12 +663,6 @@
     <t>CalCurCEAS_018</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_018</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_018</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_018</t>
   </si>
   <si>
@@ -766,12 +684,6 @@
     <t>CalCurCEAS_019</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_019</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_019</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_019</t>
   </si>
   <si>
@@ -799,12 +711,6 @@
     <t>Monterey Bay</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_020</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_020</t>
-  </si>
-  <si>
     <t>Cory Hom-Weaver;Kourtney Burger</t>
   </si>
   <si>
@@ -829,9 +735,6 @@
     <t>CalCurCEAS_021</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_021</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_021</t>
   </si>
   <si>
@@ -856,12 +759,6 @@
     <t>Morro Bay</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_022</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_022</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_022</t>
   </si>
   <si>
@@ -883,12 +780,6 @@
     <t>CalCurCEAS_023</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_023</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_023</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_023</t>
   </si>
   <si>
@@ -913,12 +804,6 @@
     <t>Channel Islands</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_024</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_024</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_024</t>
   </si>
   <si>
@@ -943,12 +828,6 @@
     <t>San Diego</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_025</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_025</t>
-  </si>
-  <si>
     <t>Cory Hom-Weaver;Jeff Moore</t>
   </si>
   <si>
@@ -973,12 +852,6 @@
     <t>CalCurCEAS_026</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_026</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_026</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_026</t>
   </si>
   <si>
@@ -1000,12 +873,6 @@
     <t>CalCurCEAS_027</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/metadata/CalCurCEAS_027</t>
-  </si>
-  <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_027</t>
-  </si>
-  <si>
     <t>E:/CalCurCEAS PACE/metadata/gps/CalCurCEAS_027</t>
   </si>
   <si>
@@ -1021,16 +888,163 @@
     <t>2024-12-03T06:25:00</t>
   </si>
   <si>
-    <t>D:/CalCurCEAS PACE/audio/CalCurCEAS_021</t>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_002</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_002</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_003</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_003</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_004</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_004</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_006</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_006</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_008</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_008</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_009</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_009</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_010</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_010</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_011</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_011</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_012</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_012</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_013</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_013</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_014</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_014</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_015</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_015</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_016</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_016</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_017</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_017</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_018</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_018</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_019</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_019</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_020</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_020</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_021</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_021</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_022</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_022</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_023</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_023</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_024</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_024</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_025</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_025</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_026</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_026</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_027</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_027</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/metadata/CalCurCEAS_001</t>
+  </si>
+  <si>
+    <t>F:/CalCurCEAS PACE/audio/CalCurCEAS_001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1508,9 +1522,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1868,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1883,7 +1896,7 @@
     <col min="7" max="7" width="64.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="43" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="39.5546875" bestFit="1" customWidth="1"/>
@@ -1962,7 +1975,7 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -2159,59 +2172,59 @@
       <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="1">
-        <v>45758</v>
+      <c r="J2" t="s">
+        <v>284</v>
       </c>
       <c r="K2" t="s">
         <v>74</v>
       </c>
       <c r="L2" t="s">
+        <v>333</v>
+      </c>
+      <c r="M2" t="s">
+        <v>334</v>
+      </c>
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>77</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>79</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>80</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>81</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>82</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>83</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>84</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>85</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" t="s">
         <v>86</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>87</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>89</v>
       </c>
       <c r="AB2">
         <v>50</v>
@@ -2220,22 +2233,22 @@
         <v>192000</v>
       </c>
       <c r="AD2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" t="s">
         <v>90</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>92</v>
       </c>
       <c r="AH2">
         <v>1</v>
       </c>
       <c r="AI2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AJ2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AK2">
         <v>384000</v>
@@ -2244,10 +2257,10 @@
         <v>16</v>
       </c>
       <c r="AM2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AO2">
         <v>6</v>
@@ -2256,25 +2269,25 @@
         <v>6</v>
       </c>
       <c r="AQ2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AR2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AS2">
         <v>7951</v>
       </c>
       <c r="AT2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AU2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AV2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AW2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AX2">
         <v>856135</v>
@@ -2301,7 +2314,7 @@
         <v>-100</v>
       </c>
       <c r="BF2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BG2">
         <v>0</v>
@@ -2327,13 +2340,13 @@
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
@@ -2353,59 +2366,59 @@
       <c r="I3" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="1">
-        <v>45758</v>
+      <c r="J3" t="s">
+        <v>284</v>
       </c>
       <c r="K3" t="s">
         <v>74</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>286</v>
       </c>
       <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
         <v>77</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>78</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>79</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>80</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>81</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>82</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>83</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>84</v>
       </c>
-      <c r="V3" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s">
         <v>86</v>
       </c>
-      <c r="X3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>88</v>
-      </c>
       <c r="AA3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB3">
         <v>500</v>
@@ -2414,22 +2427,22 @@
         <v>192000</v>
       </c>
       <c r="AD3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AF3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AH3">
         <v>1</v>
       </c>
       <c r="AI3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AJ3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AK3">
         <v>384000</v>
@@ -2438,10 +2451,10 @@
         <v>16</v>
       </c>
       <c r="AM3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AN3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AO3">
         <v>6</v>
@@ -2450,25 +2463,25 @@
         <v>6</v>
       </c>
       <c r="AQ3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AR3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AS3">
         <v>6663</v>
       </c>
       <c r="AT3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="AU3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AV3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AW3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="AX3">
         <v>856164</v>
@@ -2495,7 +2508,7 @@
         <v>-100</v>
       </c>
       <c r="BF3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2521,13 +2534,13 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
@@ -2547,59 +2560,59 @@
       <c r="I4" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="1">
-        <v>45758</v>
+      <c r="J4" t="s">
+        <v>284</v>
       </c>
       <c r="K4" t="s">
         <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
         <v>77</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>78</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>80</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>81</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>82</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>83</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>84</v>
       </c>
-      <c r="V4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" t="s">
         <v>86</v>
       </c>
-      <c r="X4" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>88</v>
-      </c>
       <c r="AA4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB4">
         <v>100</v>
@@ -2608,22 +2621,22 @@
         <v>192000</v>
       </c>
       <c r="AD4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AF4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH4">
         <v>1</v>
       </c>
       <c r="AI4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AJ4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AK4">
         <v>384000</v>
@@ -2632,10 +2645,10 @@
         <v>16</v>
       </c>
       <c r="AM4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AN4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AO4">
         <v>6</v>
@@ -2644,25 +2657,25 @@
         <v>6</v>
       </c>
       <c r="AQ4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AR4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AS4">
         <v>7517</v>
       </c>
       <c r="AT4" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AU4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AV4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AW4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AX4">
         <v>856154</v>
@@ -2689,7 +2702,7 @@
         <v>-100</v>
       </c>
       <c r="BF4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -2715,13 +2728,13 @@
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
@@ -2741,59 +2754,59 @@
       <c r="I5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="1">
-        <v>45758</v>
+      <c r="J5" t="s">
+        <v>284</v>
       </c>
       <c r="K5" t="s">
         <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s">
         <v>77</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>78</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>79</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>80</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>81</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>82</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>83</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>84</v>
       </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z5" t="s">
         <v>86</v>
       </c>
-      <c r="X5" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>88</v>
-      </c>
       <c r="AA5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB5">
         <v>50</v>
@@ -2802,22 +2815,22 @@
         <v>192000</v>
       </c>
       <c r="AD5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AF5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AH5">
         <v>1</v>
       </c>
       <c r="AI5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AJ5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AK5">
         <v>384000</v>
@@ -2826,10 +2839,10 @@
         <v>16</v>
       </c>
       <c r="AM5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AN5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AO5">
         <v>6</v>
@@ -2838,25 +2851,25 @@
         <v>6</v>
       </c>
       <c r="AQ5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AR5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AS5">
         <v>7581</v>
       </c>
       <c r="AT5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="AU5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="AV5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="AW5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="AX5">
         <v>856141</v>
@@ -2883,7 +2896,7 @@
         <v>-100</v>
       </c>
       <c r="BF5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -2909,13 +2922,13 @@
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -2933,61 +2946,61 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="1">
-        <v>45758</v>
+        <v>120</v>
+      </c>
+      <c r="J6" t="s">
+        <v>284</v>
       </c>
       <c r="K6" t="s">
         <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
       <c r="M6" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
         <v>77</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>78</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>79</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>80</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>81</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>82</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>83</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" t="s">
         <v>84</v>
       </c>
-      <c r="V6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z6" t="s">
         <v>86</v>
       </c>
-      <c r="X6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>88</v>
-      </c>
       <c r="AA6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB6">
         <v>50</v>
@@ -2996,22 +3009,22 @@
         <v>192000</v>
       </c>
       <c r="AD6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AF6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AH6">
         <v>1</v>
       </c>
       <c r="AI6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AJ6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AK6">
         <v>384000</v>
@@ -3020,10 +3033,10 @@
         <v>16</v>
       </c>
       <c r="AM6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AN6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AO6">
         <v>6</v>
@@ -3032,25 +3045,25 @@
         <v>6</v>
       </c>
       <c r="AQ6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AR6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AS6">
         <v>7936</v>
       </c>
       <c r="AT6" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="AU6" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="AV6" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="AW6" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="AX6">
         <v>856139</v>
@@ -3077,7 +3090,7 @@
         <v>-100</v>
       </c>
       <c r="BF6" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -3103,13 +3116,13 @@
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
         <v>68</v>
@@ -3127,61 +3140,61 @@
         <v>72</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
-      </c>
-      <c r="J7" s="1">
-        <v>45758</v>
+        <v>120</v>
+      </c>
+      <c r="J7" t="s">
+        <v>284</v>
       </c>
       <c r="K7" t="s">
         <v>74</v>
       </c>
       <c r="L7" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="M7" t="s">
-        <v>140</v>
+        <v>294</v>
       </c>
       <c r="N7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" t="s">
         <v>78</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>79</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" t="s">
         <v>80</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>81</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>82</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>83</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" t="s">
         <v>84</v>
       </c>
-      <c r="V7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z7" t="s">
         <v>86</v>
       </c>
-      <c r="X7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>88</v>
-      </c>
       <c r="AA7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -3190,22 +3203,22 @@
         <v>192000</v>
       </c>
       <c r="AD7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AF7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AH7">
         <v>1</v>
       </c>
       <c r="AI7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AJ7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AK7">
         <v>384000</v>
@@ -3214,10 +3227,10 @@
         <v>16</v>
       </c>
       <c r="AM7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AN7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AO7">
         <v>6</v>
@@ -3226,25 +3239,25 @@
         <v>6</v>
       </c>
       <c r="AQ7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AR7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AS7">
         <v>7936</v>
       </c>
       <c r="AT7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="AU7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AV7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="AW7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="AX7">
         <v>856136</v>
@@ -3271,7 +3284,7 @@
         <v>-100</v>
       </c>
       <c r="BF7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -3297,13 +3310,13 @@
     </row>
     <row r="8" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -3321,61 +3334,61 @@
         <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
-      </c>
-      <c r="J8" s="1">
-        <v>45758</v>
+        <v>120</v>
+      </c>
+      <c r="J8" t="s">
+        <v>284</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="N8" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" t="s">
         <v>78</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>79</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>80</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>82</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>83</v>
       </c>
-      <c r="U8" t="s">
+      <c r="W8" t="s">
         <v>84</v>
       </c>
-      <c r="V8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" t="s">
         <v>86</v>
       </c>
-      <c r="X8" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>88</v>
-      </c>
       <c r="AA8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB8">
         <v>115</v>
@@ -3384,22 +3397,22 @@
         <v>192000</v>
       </c>
       <c r="AD8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AF8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AH8">
         <v>1</v>
       </c>
       <c r="AI8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AJ8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AK8">
         <v>384000</v>
@@ -3408,10 +3421,10 @@
         <v>16</v>
       </c>
       <c r="AM8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AN8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AO8">
         <v>6</v>
@@ -3420,25 +3433,25 @@
         <v>6</v>
       </c>
       <c r="AQ8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AR8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AS8">
         <v>7517</v>
       </c>
       <c r="AT8" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="AU8" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="AV8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AW8" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="AX8">
         <v>856138</v>
@@ -3465,7 +3478,7 @@
         <v>-100</v>
       </c>
       <c r="BF8" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -3491,13 +3504,13 @@
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -3515,61 +3528,61 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="1">
-        <v>45758</v>
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>284</v>
       </c>
       <c r="K9" t="s">
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>160</v>
+        <v>297</v>
       </c>
       <c r="M9" t="s">
-        <v>161</v>
+        <v>298</v>
       </c>
       <c r="N9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O9" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9" t="s">
         <v>78</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>79</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>80</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>81</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>82</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>83</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>84</v>
       </c>
-      <c r="V9" t="s">
-        <v>85</v>
-      </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s">
         <v>86</v>
       </c>
-      <c r="X9" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>88</v>
-      </c>
       <c r="AA9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB9">
         <v>350</v>
@@ -3578,22 +3591,22 @@
         <v>192000</v>
       </c>
       <c r="AD9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AF9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AH9">
         <v>1</v>
       </c>
       <c r="AI9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AJ9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AK9">
         <v>384000</v>
@@ -3602,10 +3615,10 @@
         <v>16</v>
       </c>
       <c r="AM9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AN9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AO9">
         <v>6</v>
@@ -3614,25 +3627,25 @@
         <v>6</v>
       </c>
       <c r="AQ9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AR9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AS9">
         <v>6663</v>
       </c>
       <c r="AT9" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="AU9" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="AV9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AW9" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AX9">
         <v>856159</v>
@@ -3659,7 +3672,7 @@
         <v>-100</v>
       </c>
       <c r="BF9" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -3685,13 +3698,13 @@
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
@@ -3709,61 +3722,61 @@
         <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="1">
-        <v>45758</v>
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>284</v>
       </c>
       <c r="K10" t="s">
         <v>74</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="M10" t="s">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="N10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" t="s">
         <v>78</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>80</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>81</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>82</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>83</v>
       </c>
-      <c r="U10" t="s">
+      <c r="W10" t="s">
         <v>84</v>
       </c>
-      <c r="V10" t="s">
-        <v>85</v>
-      </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z10" t="s">
         <v>86</v>
       </c>
-      <c r="X10" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>88</v>
-      </c>
       <c r="AA10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB10">
         <v>60</v>
@@ -3772,22 +3785,22 @@
         <v>192000</v>
       </c>
       <c r="AD10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AF10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AH10">
         <v>1</v>
       </c>
       <c r="AI10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AJ10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AK10">
         <v>384000</v>
@@ -3796,10 +3809,10 @@
         <v>16</v>
       </c>
       <c r="AM10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AN10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AO10">
         <v>6</v>
@@ -3808,25 +3821,25 @@
         <v>6</v>
       </c>
       <c r="AQ10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AR10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AS10">
         <v>7518</v>
       </c>
       <c r="AT10" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="AU10" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="AV10" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="AW10" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="AX10">
         <v>856156</v>
@@ -3853,7 +3866,7 @@
         <v>-100</v>
       </c>
       <c r="BF10" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -3879,13 +3892,13 @@
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D11" t="s">
         <v>68</v>
@@ -3903,61 +3916,61 @@
         <v>72</v>
       </c>
       <c r="I11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J11" s="1">
-        <v>45758</v>
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
+        <v>284</v>
       </c>
       <c r="K11" t="s">
         <v>74</v>
       </c>
       <c r="L11" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="M11" t="s">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="N11" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>78</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>79</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>80</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>81</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>82</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>83</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>84</v>
       </c>
-      <c r="V11" t="s">
-        <v>85</v>
-      </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z11" t="s">
         <v>86</v>
       </c>
-      <c r="X11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>88</v>
-      </c>
       <c r="AA11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB11">
         <v>300</v>
@@ -3966,22 +3979,22 @@
         <v>192000</v>
       </c>
       <c r="AD11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AF11" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="AH11">
         <v>1</v>
       </c>
       <c r="AI11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AJ11" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="AK11">
         <v>384000</v>
@@ -3990,10 +4003,10 @@
         <v>16</v>
       </c>
       <c r="AM11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AN11" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="AO11">
         <v>6</v>
@@ -4002,25 +4015,25 @@
         <v>6</v>
       </c>
       <c r="AQ11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AR11" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="AS11">
         <v>7930</v>
       </c>
       <c r="AT11" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="AU11" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AV11" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="AW11" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="AX11">
         <v>856135</v>
@@ -4047,7 +4060,7 @@
         <v>-100</v>
       </c>
       <c r="BF11" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -4073,13 +4086,13 @@
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
@@ -4097,61 +4110,61 @@
         <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="1">
-        <v>45758</v>
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>284</v>
       </c>
       <c r="K12" t="s">
         <v>74</v>
       </c>
       <c r="L12" t="s">
-        <v>191</v>
+        <v>303</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="N12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" t="s">
         <v>77</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>78</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>79</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>80</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>81</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>82</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>83</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>84</v>
       </c>
-      <c r="V12" t="s">
-        <v>85</v>
-      </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s">
         <v>86</v>
       </c>
-      <c r="X12" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>88</v>
-      </c>
       <c r="AA12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB12">
         <v>100</v>
@@ -4160,22 +4173,22 @@
         <v>192000</v>
       </c>
       <c r="AD12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE12" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="AF12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="AH12">
         <v>1</v>
       </c>
       <c r="AI12" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="AJ12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="AK12">
         <v>384000</v>
@@ -4184,10 +4197,10 @@
         <v>16</v>
       </c>
       <c r="AM12" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="AN12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="AO12">
         <v>6</v>
@@ -4196,25 +4209,25 @@
         <v>6</v>
       </c>
       <c r="AQ12" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="AR12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="AS12">
         <v>7518</v>
       </c>
       <c r="AT12" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="AU12" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="AV12" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="AW12" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="AX12">
         <v>856163</v>
@@ -4241,7 +4254,7 @@
         <v>-100</v>
       </c>
       <c r="BF12" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -4267,13 +4280,13 @@
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D13" t="s">
         <v>68</v>
@@ -4291,61 +4304,61 @@
         <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>180</v>
-      </c>
-      <c r="J13" s="1">
-        <v>45758</v>
+        <v>162</v>
+      </c>
+      <c r="J13" t="s">
+        <v>284</v>
       </c>
       <c r="K13" t="s">
         <v>74</v>
       </c>
       <c r="L13" t="s">
-        <v>201</v>
+        <v>305</v>
       </c>
       <c r="M13" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="N13" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" t="s">
         <v>77</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>78</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>79</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>80</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>81</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>82</v>
       </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
         <v>83</v>
       </c>
-      <c r="U13" t="s">
+      <c r="W13" t="s">
         <v>84</v>
       </c>
-      <c r="V13" t="s">
-        <v>85</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z13" t="s">
         <v>86</v>
       </c>
-      <c r="X13" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>88</v>
-      </c>
       <c r="AA13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB13">
         <v>20</v>
@@ -4354,22 +4367,22 @@
         <v>192000</v>
       </c>
       <c r="AD13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE13" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="AF13" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AH13">
         <v>1</v>
       </c>
       <c r="AI13" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="AJ13" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AK13">
         <v>384000</v>
@@ -4378,10 +4391,10 @@
         <v>16</v>
       </c>
       <c r="AM13" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AO13">
         <v>6</v>
@@ -4390,25 +4403,25 @@
         <v>6</v>
       </c>
       <c r="AQ13" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="AR13" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AS13">
         <v>7519</v>
       </c>
       <c r="AT13" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="AU13" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="AV13" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="AW13" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AX13">
         <v>856161</v>
@@ -4435,7 +4448,7 @@
         <v>-100</v>
       </c>
       <c r="BF13" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -4461,13 +4474,13 @@
     </row>
     <row r="14" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D14" t="s">
         <v>68</v>
@@ -4485,61 +4498,61 @@
         <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>180</v>
-      </c>
-      <c r="J14" s="1">
-        <v>45758</v>
+        <v>162</v>
+      </c>
+      <c r="J14" t="s">
+        <v>284</v>
       </c>
       <c r="K14" t="s">
         <v>74</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>307</v>
       </c>
       <c r="M14" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="N14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s">
         <v>77</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>78</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>79</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>80</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>81</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>82</v>
       </c>
-      <c r="T14" t="s">
+      <c r="V14" t="s">
         <v>83</v>
       </c>
-      <c r="U14" t="s">
+      <c r="W14" t="s">
         <v>84</v>
       </c>
-      <c r="V14" t="s">
-        <v>85</v>
-      </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s">
         <v>86</v>
       </c>
-      <c r="X14" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>88</v>
-      </c>
       <c r="AA14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -4548,22 +4561,22 @@
         <v>192000</v>
       </c>
       <c r="AD14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE14" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AF14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AH14">
         <v>1</v>
       </c>
       <c r="AI14" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AJ14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AK14">
         <v>384000</v>
@@ -4572,10 +4585,10 @@
         <v>16</v>
       </c>
       <c r="AM14" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AO14">
         <v>6</v>
@@ -4584,25 +4597,25 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AR14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AS14">
         <v>6663</v>
       </c>
       <c r="AT14" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="AU14" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="AV14" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="AW14" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AX14">
         <v>856136</v>
@@ -4629,7 +4642,7 @@
         <v>-100</v>
       </c>
       <c r="BF14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -4655,13 +4668,13 @@
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
         <v>68</v>
@@ -4679,61 +4692,61 @@
         <v>72</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
-      </c>
-      <c r="J15" s="1">
-        <v>45758</v>
+        <v>194</v>
+      </c>
+      <c r="J15" t="s">
+        <v>284</v>
       </c>
       <c r="K15" t="s">
         <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
       <c r="M15" t="s">
-        <v>222</v>
+        <v>310</v>
       </c>
       <c r="N15" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" t="s">
         <v>77</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>78</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>79</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>80</v>
       </c>
-      <c r="R15" t="s">
+      <c r="T15" t="s">
         <v>81</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>82</v>
       </c>
-      <c r="T15" t="s">
+      <c r="V15" t="s">
         <v>83</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>84</v>
       </c>
-      <c r="V15" t="s">
-        <v>85</v>
-      </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s">
         <v>86</v>
       </c>
-      <c r="X15" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>88</v>
-      </c>
       <c r="AA15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB15">
         <v>35</v>
@@ -4742,22 +4755,22 @@
         <v>192000</v>
       </c>
       <c r="AD15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE15" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AH15">
         <v>1</v>
       </c>
       <c r="AI15" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AJ15" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AK15">
         <v>384000</v>
@@ -4766,10 +4779,10 @@
         <v>16</v>
       </c>
       <c r="AM15" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AN15" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AO15">
         <v>6</v>
@@ -4778,25 +4791,25 @@
         <v>6</v>
       </c>
       <c r="AQ15" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AR15" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AS15">
         <v>7936</v>
       </c>
       <c r="AT15" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="AU15" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="AV15" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="AW15" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="AX15">
         <v>856135</v>
@@ -4823,7 +4836,7 @@
         <v>-100</v>
       </c>
       <c r="BF15" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -4849,13 +4862,13 @@
     </row>
     <row r="16" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
@@ -4873,61 +4886,61 @@
         <v>72</v>
       </c>
       <c r="I16" t="s">
-        <v>180</v>
-      </c>
-      <c r="J16" s="1">
-        <v>45758</v>
+        <v>162</v>
+      </c>
+      <c r="J16" t="s">
+        <v>284</v>
       </c>
       <c r="K16" t="s">
         <v>74</v>
       </c>
       <c r="L16" t="s">
-        <v>230</v>
+        <v>311</v>
       </c>
       <c r="M16" t="s">
-        <v>231</v>
+        <v>312</v>
       </c>
       <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" t="s">
         <v>77</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>78</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>79</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="S16" t="s">
         <v>80</v>
       </c>
-      <c r="R16" t="s">
+      <c r="T16" t="s">
         <v>81</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>82</v>
       </c>
-      <c r="T16" t="s">
+      <c r="V16" t="s">
         <v>83</v>
       </c>
-      <c r="U16" t="s">
+      <c r="W16" t="s">
         <v>84</v>
       </c>
-      <c r="V16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z16" t="s">
         <v>86</v>
       </c>
-      <c r="X16" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>88</v>
-      </c>
       <c r="AA16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB16">
         <v>125</v>
@@ -4936,22 +4949,22 @@
         <v>192000</v>
       </c>
       <c r="AD16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE16" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AF16" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AH16">
         <v>1</v>
       </c>
       <c r="AI16" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AJ16" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AK16">
         <v>384000</v>
@@ -4960,10 +4973,10 @@
         <v>16</v>
       </c>
       <c r="AM16" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AN16" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AO16">
         <v>6</v>
@@ -4972,25 +4985,25 @@
         <v>6</v>
       </c>
       <c r="AQ16" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AR16" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AS16">
         <v>7518</v>
       </c>
       <c r="AT16" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="AU16" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="AV16" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="AW16" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AX16">
         <v>856159</v>
@@ -5017,7 +5030,7 @@
         <v>-100</v>
       </c>
       <c r="BF16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -5043,13 +5056,13 @@
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
@@ -5067,61 +5080,61 @@
         <v>72</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
-      </c>
-      <c r="J17" s="1">
-        <v>45758</v>
+        <v>194</v>
+      </c>
+      <c r="J17" t="s">
+        <v>284</v>
       </c>
       <c r="K17" t="s">
         <v>74</v>
       </c>
       <c r="L17" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="M17" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="N17" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17" t="s">
         <v>77</v>
       </c>
-      <c r="O17" t="s">
+      <c r="Q17" t="s">
         <v>78</v>
       </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>80</v>
       </c>
-      <c r="R17" t="s">
+      <c r="T17" t="s">
         <v>81</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>82</v>
       </c>
-      <c r="T17" t="s">
+      <c r="V17" t="s">
         <v>83</v>
       </c>
-      <c r="U17" t="s">
+      <c r="W17" t="s">
         <v>84</v>
       </c>
-      <c r="V17" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z17" t="s">
         <v>86</v>
       </c>
-      <c r="X17" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>88</v>
-      </c>
       <c r="AA17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -5130,22 +5143,22 @@
         <v>192000</v>
       </c>
       <c r="AD17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE17" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AF17" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AH17">
         <v>1</v>
       </c>
       <c r="AI17" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AJ17" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AK17">
         <v>384000</v>
@@ -5154,10 +5167,10 @@
         <v>16</v>
       </c>
       <c r="AM17" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AN17" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AO17">
         <v>6</v>
@@ -5166,25 +5179,25 @@
         <v>6</v>
       </c>
       <c r="AQ17" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AR17" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AS17">
         <v>7930</v>
       </c>
       <c r="AT17" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="AU17" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="AV17" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="AW17" t="s">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AX17">
         <v>856138</v>
@@ -5211,7 +5224,7 @@
         <v>-100</v>
       </c>
       <c r="BF17" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="BG17">
         <v>0</v>
@@ -5237,13 +5250,13 @@
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s">
         <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
@@ -5261,61 +5274,61 @@
         <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="1">
-        <v>45758</v>
+        <v>194</v>
+      </c>
+      <c r="J18" t="s">
+        <v>284</v>
       </c>
       <c r="K18" t="s">
         <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="M18" t="s">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="N18" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" t="s">
         <v>77</v>
       </c>
-      <c r="O18" t="s">
+      <c r="Q18" t="s">
         <v>78</v>
       </c>
-      <c r="P18" t="s">
+      <c r="R18" t="s">
         <v>79</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="S18" t="s">
         <v>80</v>
       </c>
-      <c r="R18" t="s">
+      <c r="T18" t="s">
         <v>81</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>82</v>
       </c>
-      <c r="T18" t="s">
+      <c r="V18" t="s">
         <v>83</v>
       </c>
-      <c r="U18" t="s">
+      <c r="W18" t="s">
         <v>84</v>
       </c>
-      <c r="V18" t="s">
-        <v>85</v>
-      </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z18" t="s">
         <v>86</v>
       </c>
-      <c r="X18" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>88</v>
-      </c>
       <c r="AA18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB18">
         <v>100</v>
@@ -5324,22 +5337,22 @@
         <v>192000</v>
       </c>
       <c r="AD18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE18" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AF18" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AH18">
         <v>1</v>
       </c>
       <c r="AI18" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AJ18" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AK18">
         <v>384000</v>
@@ -5348,10 +5361,10 @@
         <v>16</v>
       </c>
       <c r="AM18" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AN18" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AO18">
         <v>6</v>
@@ -5360,25 +5373,25 @@
         <v>6</v>
       </c>
       <c r="AQ18" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AR18" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AS18">
         <v>8595</v>
       </c>
       <c r="AT18" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="AU18" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="AV18" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="AW18" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="AX18">
         <v>856155</v>
@@ -5405,7 +5418,7 @@
         <v>-100</v>
       </c>
       <c r="BF18" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -5431,13 +5444,13 @@
     </row>
     <row r="19" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
@@ -5455,61 +5468,61 @@
         <v>72</v>
       </c>
       <c r="I19" t="s">
-        <v>258</v>
-      </c>
-      <c r="J19" s="1">
-        <v>45758</v>
+        <v>224</v>
+      </c>
+      <c r="J19" t="s">
+        <v>284</v>
       </c>
       <c r="K19" t="s">
         <v>74</v>
       </c>
       <c r="L19" t="s">
-        <v>259</v>
+        <v>317</v>
       </c>
       <c r="M19" t="s">
-        <v>260</v>
+        <v>318</v>
       </c>
       <c r="N19" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="O19" t="s">
+        <v>76</v>
+      </c>
+      <c r="P19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q19" t="s">
         <v>78</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>79</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>80</v>
       </c>
-      <c r="R19" t="s">
+      <c r="T19" t="s">
         <v>81</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>82</v>
       </c>
-      <c r="T19" t="s">
+      <c r="V19" t="s">
         <v>83</v>
       </c>
-      <c r="U19" t="s">
+      <c r="W19" t="s">
         <v>84</v>
       </c>
-      <c r="V19" t="s">
-        <v>85</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s">
         <v>86</v>
       </c>
-      <c r="X19" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>88</v>
-      </c>
       <c r="AA19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB19">
         <v>20</v>
@@ -5518,22 +5531,22 @@
         <v>192000</v>
       </c>
       <c r="AD19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE19" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AF19" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AH19">
         <v>1</v>
       </c>
       <c r="AI19" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AJ19" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AK19">
         <v>384000</v>
@@ -5542,10 +5555,10 @@
         <v>16</v>
       </c>
       <c r="AM19" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AO19">
         <v>6</v>
@@ -5554,25 +5567,25 @@
         <v>6</v>
       </c>
       <c r="AQ19" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AR19" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AS19">
         <v>7936</v>
       </c>
       <c r="AT19" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="AU19" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AV19" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="AW19" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="AX19">
         <v>856163</v>
@@ -5599,7 +5612,7 @@
         <v>-100</v>
       </c>
       <c r="BF19" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -5625,13 +5638,13 @@
     </row>
     <row r="20" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
@@ -5649,61 +5662,61 @@
         <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>258</v>
-      </c>
-      <c r="J20" s="1">
-        <v>45758</v>
+        <v>224</v>
+      </c>
+      <c r="J20" t="s">
+        <v>284</v>
       </c>
       <c r="K20" t="s">
         <v>74</v>
       </c>
       <c r="L20" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
       <c r="M20" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N20" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="O20" t="s">
+        <v>76</v>
+      </c>
+      <c r="P20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" t="s">
         <v>78</v>
       </c>
-      <c r="P20" t="s">
+      <c r="R20" t="s">
         <v>79</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="S20" t="s">
         <v>80</v>
       </c>
-      <c r="R20" t="s">
+      <c r="T20" t="s">
         <v>81</v>
       </c>
-      <c r="S20" t="s">
+      <c r="U20" t="s">
         <v>82</v>
       </c>
-      <c r="T20" t="s">
+      <c r="V20" t="s">
         <v>83</v>
       </c>
-      <c r="U20" t="s">
+      <c r="W20" t="s">
         <v>84</v>
       </c>
-      <c r="V20" t="s">
-        <v>85</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="s">
         <v>86</v>
       </c>
-      <c r="X20" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>88</v>
-      </c>
       <c r="AA20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -5712,22 +5725,22 @@
         <v>192000</v>
       </c>
       <c r="AD20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE20" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="AF20" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AH20">
         <v>1</v>
       </c>
       <c r="AI20" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="AJ20" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AK20">
         <v>384000</v>
@@ -5736,10 +5749,10 @@
         <v>16</v>
       </c>
       <c r="AM20" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AO20">
         <v>6</v>
@@ -5748,25 +5761,25 @@
         <v>6</v>
       </c>
       <c r="AQ20" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="AR20" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AS20">
         <v>8595</v>
       </c>
       <c r="AT20" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="AU20" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="AV20" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="AW20" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="AX20">
         <v>856141</v>
@@ -5793,7 +5806,7 @@
         <v>-100</v>
       </c>
       <c r="BF20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="BG20">
         <v>0</v>
@@ -5819,13 +5832,13 @@
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
@@ -5843,61 +5856,61 @@
         <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>277</v>
-      </c>
-      <c r="J21" s="1">
-        <v>45758</v>
+        <v>240</v>
+      </c>
+      <c r="J21" t="s">
+        <v>284</v>
       </c>
       <c r="K21" t="s">
         <v>74</v>
       </c>
       <c r="L21" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="M21" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="N21" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" t="s">
         <v>78</v>
       </c>
-      <c r="P21" t="s">
+      <c r="R21" t="s">
         <v>79</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="S21" t="s">
         <v>80</v>
       </c>
-      <c r="R21" t="s">
+      <c r="T21" t="s">
         <v>81</v>
       </c>
-      <c r="S21" t="s">
+      <c r="U21" t="s">
         <v>82</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V21" t="s">
         <v>83</v>
       </c>
-      <c r="U21" t="s">
+      <c r="W21" t="s">
         <v>84</v>
       </c>
-      <c r="V21" t="s">
-        <v>85</v>
-      </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s">
         <v>86</v>
       </c>
-      <c r="X21" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>88</v>
-      </c>
       <c r="AA21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB21">
         <v>0</v>
@@ -5906,22 +5919,22 @@
         <v>192000</v>
       </c>
       <c r="AD21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AF21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AH21">
         <v>1</v>
       </c>
       <c r="AI21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AJ21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AK21">
         <v>384000</v>
@@ -5930,10 +5943,10 @@
         <v>16</v>
       </c>
       <c r="AM21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AO21">
         <v>6</v>
@@ -5942,25 +5955,25 @@
         <v>6</v>
       </c>
       <c r="AQ21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AR21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AS21">
         <v>7521</v>
       </c>
       <c r="AT21" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="AU21" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AV21" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="AW21" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="AX21">
         <v>856138</v>
@@ -5987,7 +6000,7 @@
         <v>-100</v>
       </c>
       <c r="BF21" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -6013,13 +6026,13 @@
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s">
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="D22" t="s">
         <v>68</v>
@@ -6037,61 +6050,61 @@
         <v>72</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
-      </c>
-      <c r="J22" s="1">
-        <v>45758</v>
+        <v>240</v>
+      </c>
+      <c r="J22" t="s">
+        <v>284</v>
       </c>
       <c r="K22" t="s">
         <v>74</v>
       </c>
       <c r="L22" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M22" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="N22" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" t="s">
         <v>78</v>
       </c>
-      <c r="P22" t="s">
+      <c r="R22" t="s">
         <v>79</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="S22" t="s">
         <v>80</v>
       </c>
-      <c r="R22" t="s">
+      <c r="T22" t="s">
         <v>81</v>
       </c>
-      <c r="S22" t="s">
+      <c r="U22" t="s">
         <v>82</v>
       </c>
-      <c r="T22" t="s">
+      <c r="V22" t="s">
         <v>83</v>
       </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
         <v>84</v>
       </c>
-      <c r="V22" t="s">
-        <v>85</v>
-      </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s">
         <v>86</v>
       </c>
-      <c r="X22" t="s">
-        <v>289</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>88</v>
-      </c>
       <c r="AA22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB22">
         <v>20</v>
@@ -6100,22 +6113,22 @@
         <v>192000</v>
       </c>
       <c r="AD22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE22" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AF22" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="AH22">
         <v>1</v>
       </c>
       <c r="AI22" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AJ22" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="AK22">
         <v>384000</v>
@@ -6124,10 +6137,10 @@
         <v>16</v>
       </c>
       <c r="AM22" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AN22" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="AO22">
         <v>6</v>
@@ -6136,25 +6149,25 @@
         <v>6</v>
       </c>
       <c r="AQ22" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AR22" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="AS22">
         <v>7518</v>
       </c>
       <c r="AT22" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AU22" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="AV22" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
       <c r="AW22" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="AX22">
         <v>856156</v>
@@ -6181,7 +6194,7 @@
         <v>-100</v>
       </c>
       <c r="BF22" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="BG22">
         <v>0</v>
@@ -6207,13 +6220,13 @@
     </row>
     <row r="23" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="D23" t="s">
         <v>68</v>
@@ -6231,61 +6244,61 @@
         <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>296</v>
-      </c>
-      <c r="J23" s="1">
-        <v>45758</v>
+        <v>255</v>
+      </c>
+      <c r="J23" t="s">
+        <v>284</v>
       </c>
       <c r="K23" t="s">
         <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="M23" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="N23" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="O23" t="s">
+        <v>76</v>
+      </c>
+      <c r="P23" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q23" t="s">
         <v>78</v>
       </c>
-      <c r="P23" t="s">
+      <c r="R23" t="s">
         <v>79</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="S23" t="s">
         <v>80</v>
       </c>
-      <c r="R23" t="s">
+      <c r="T23" t="s">
         <v>81</v>
       </c>
-      <c r="S23" t="s">
+      <c r="U23" t="s">
         <v>82</v>
       </c>
-      <c r="T23" t="s">
+      <c r="V23" t="s">
         <v>83</v>
       </c>
-      <c r="U23" t="s">
+      <c r="W23" t="s">
         <v>84</v>
       </c>
-      <c r="V23" t="s">
-        <v>85</v>
-      </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s">
         <v>86</v>
       </c>
-      <c r="X23" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>88</v>
-      </c>
       <c r="AA23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -6294,22 +6307,22 @@
         <v>192000</v>
       </c>
       <c r="AD23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE23" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="AF23" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="AH23">
         <v>1</v>
       </c>
       <c r="AI23" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="AJ23" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="AK23">
         <v>384000</v>
@@ -6318,10 +6331,10 @@
         <v>16</v>
       </c>
       <c r="AM23" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="AN23" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="AO23">
         <v>6</v>
@@ -6330,25 +6343,25 @@
         <v>6</v>
       </c>
       <c r="AQ23" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="AR23" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="AS23">
         <v>8595</v>
       </c>
       <c r="AT23" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="AU23" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="AV23" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="AW23" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="AX23">
         <v>856141</v>
@@ -6375,7 +6388,7 @@
         <v>-100</v>
       </c>
       <c r="BF23" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="BG23">
         <v>0</v>
@@ -6401,13 +6414,13 @@
     </row>
     <row r="24" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="D24" t="s">
         <v>68</v>
@@ -6425,61 +6438,61 @@
         <v>72</v>
       </c>
       <c r="I24" t="s">
-        <v>306</v>
-      </c>
-      <c r="J24" s="1">
-        <v>45758</v>
+        <v>263</v>
+      </c>
+      <c r="J24" t="s">
+        <v>284</v>
       </c>
       <c r="K24" t="s">
         <v>74</v>
       </c>
       <c r="L24" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M24" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="N24" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="O24" t="s">
+        <v>76</v>
+      </c>
+      <c r="P24" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" t="s">
         <v>78</v>
       </c>
-      <c r="P24" t="s">
+      <c r="R24" t="s">
         <v>79</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="S24" t="s">
         <v>80</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>81</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>82</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>83</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
         <v>84</v>
       </c>
-      <c r="V24" t="s">
-        <v>85</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s">
         <v>86</v>
       </c>
-      <c r="X24" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>88</v>
-      </c>
       <c r="AA24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB24">
         <v>15</v>
@@ -6488,22 +6501,22 @@
         <v>192000</v>
       </c>
       <c r="AD24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE24" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="AF24" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AH24">
         <v>1</v>
       </c>
       <c r="AI24" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="AJ24" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AK24">
         <v>384000</v>
@@ -6512,10 +6525,10 @@
         <v>16</v>
       </c>
       <c r="AM24" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="AN24" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AO24">
         <v>6</v>
@@ -6524,25 +6537,25 @@
         <v>6</v>
       </c>
       <c r="AQ24" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="AR24" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AS24">
         <v>7517</v>
       </c>
       <c r="AT24" t="s">
-        <v>313</v>
+        <v>268</v>
       </c>
       <c r="AU24" t="s">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="AV24" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="AW24" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="AX24">
         <v>856163</v>
@@ -6569,7 +6582,7 @@
         <v>-100</v>
       </c>
       <c r="BF24" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="BG24">
         <v>0</v>
@@ -6595,13 +6608,13 @@
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s">
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
       <c r="D25" t="s">
         <v>68</v>
@@ -6619,61 +6632,61 @@
         <v>72</v>
       </c>
       <c r="I25" t="s">
-        <v>306</v>
-      </c>
-      <c r="J25" s="1">
-        <v>45758</v>
+        <v>263</v>
+      </c>
+      <c r="J25" t="s">
+        <v>284</v>
       </c>
       <c r="K25" t="s">
         <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M25" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="N25" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="O25" t="s">
+        <v>76</v>
+      </c>
+      <c r="P25" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q25" t="s">
         <v>78</v>
       </c>
-      <c r="P25" t="s">
+      <c r="R25" t="s">
         <v>79</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="S25" t="s">
         <v>80</v>
       </c>
-      <c r="R25" t="s">
+      <c r="T25" t="s">
         <v>81</v>
       </c>
-      <c r="S25" t="s">
+      <c r="U25" t="s">
         <v>82</v>
       </c>
-      <c r="T25" t="s">
+      <c r="V25" t="s">
         <v>83</v>
       </c>
-      <c r="U25" t="s">
+      <c r="W25" t="s">
         <v>84</v>
       </c>
-      <c r="V25" t="s">
-        <v>85</v>
-      </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>88</v>
-      </c>
       <c r="AA25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -6682,22 +6695,22 @@
         <v>192000</v>
       </c>
       <c r="AD25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE25" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="AF25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AH25">
         <v>1</v>
       </c>
       <c r="AI25" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="AJ25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AK25">
         <v>384000</v>
@@ -6706,10 +6719,10 @@
         <v>16</v>
       </c>
       <c r="AM25" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="AN25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AO25">
         <v>6</v>
@@ -6718,25 +6731,25 @@
         <v>6</v>
       </c>
       <c r="AQ25" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="AR25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AS25">
         <v>7939</v>
       </c>
       <c r="AT25" t="s">
-        <v>322</v>
+        <v>275</v>
       </c>
       <c r="AU25" t="s">
-        <v>323</v>
+        <v>276</v>
       </c>
       <c r="AV25" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="AW25" t="s">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="AX25">
         <v>856138</v>
@@ -6763,7 +6776,7 @@
         <v>-100</v>
       </c>
       <c r="BF25" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -6789,13 +6802,13 @@
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s">
         <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
         <v>68</v>
@@ -6813,61 +6826,61 @@
         <v>72</v>
       </c>
       <c r="I26" t="s">
-        <v>306</v>
-      </c>
-      <c r="J26" s="1">
-        <v>45758</v>
+        <v>263</v>
+      </c>
+      <c r="J26" t="s">
+        <v>284</v>
       </c>
       <c r="K26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M26" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N26" t="s">
-        <v>309</v>
+        <v>264</v>
       </c>
       <c r="O26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q26" t="s">
         <v>78</v>
       </c>
-      <c r="P26" t="s">
+      <c r="R26" t="s">
         <v>79</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="S26" t="s">
         <v>80</v>
       </c>
-      <c r="R26" t="s">
+      <c r="T26" t="s">
         <v>81</v>
       </c>
-      <c r="S26" t="s">
+      <c r="U26" t="s">
         <v>82</v>
       </c>
-      <c r="T26" t="s">
+      <c r="V26" t="s">
         <v>83</v>
       </c>
-      <c r="U26" t="s">
+      <c r="W26" t="s">
         <v>84</v>
       </c>
-      <c r="V26" t="s">
-        <v>85</v>
-      </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z26" t="s">
         <v>86</v>
       </c>
-      <c r="X26" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>88</v>
-      </c>
       <c r="AA26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AB26">
         <v>100</v>
@@ -6876,22 +6889,22 @@
         <v>192000</v>
       </c>
       <c r="AD26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE26" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="AF26" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="AH26">
         <v>1</v>
       </c>
       <c r="AI26" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="AJ26" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="AK26">
         <v>384000</v>
@@ -6900,10 +6913,10 @@
         <v>16</v>
       </c>
       <c r="AM26" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="AN26" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="AO26">
         <v>6</v>
@@ -6912,25 +6925,25 @@
         <v>6</v>
       </c>
       <c r="AQ26" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="AR26" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="AS26">
         <v>7950</v>
       </c>
       <c r="AT26" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="AU26" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="AV26" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="AW26" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="AX26">
         <v>856139</v>
@@ -6957,7 +6970,7 @@
         <v>-100</v>
       </c>
       <c r="BF26" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="BG26">
         <v>0</v>
